--- a/Test Cases (splitwise).xlsx
+++ b/Test Cases (splitwise).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Splitwise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC5D209-D8F3-4700-966D-3CB24DAAB1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43A7EED-AA99-4F63-A31C-C0EFFBCAA2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E5A88738-20E6-4658-B6AD-BD823AD18E5F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="98">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -162,6 +162,266 @@
 3. Enter the name email and password.
 4. Click on the "sign me up button".
 5. Don’t fill the captcha.</t>
+  </si>
+  <si>
+    <t>1. Name :  Hamza.
+2. hamzaali935935gmail.com.
+3. Password: Hamzaa</t>
+  </si>
+  <si>
+    <t>TC_RF_006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the link https://www.splitwise.com
+2. Click on "signup" on the top right corner.
+3. Enter the name email and password.
+4. Click on the captcha.
+</t>
+  </si>
+  <si>
+    <t>1. Name :  Hamza.
+2. hamzaali935935gmail.com.
+3. Password: Hamzaa123alikhan</t>
+  </si>
+  <si>
+    <t>1. object name should be displayed that is to be checked.
+2. Image should be displayed in pieces.
+3.Refresh icon should be displayed.
+4. Audio icon should be displayed.
+5. Help Icon should be displayed.
+6. Skip Button should be displayed.</t>
+  </si>
+  <si>
+    <t>TC_RF_007</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "signup" on the top right corner.
+3. Enter the name email and password.
+4. Click on the captcha.
+5. Click on the refresh icon</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the captcha display.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the "Refresh Icon" in the captcha display.</t>
+  </si>
+  <si>
+    <t>Image should be refreshed and new captcha should be displayed.</t>
+  </si>
+  <si>
+    <t>TC_RF_008</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the "Audio Icon" "Get and audio challenge" in the captcha display.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "signup" on the top right corner.
+3. Enter the name email and password.
+4. Click on the captcha.
+5. Click on the Audio Icon.</t>
+  </si>
+  <si>
+    <t>1. Button of with text "play" should be displayed.
+2. Input field should be displayed.
+3.Download Icon should be displayed.</t>
+  </si>
+  <si>
+    <t>TC_RF_009</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the "Play button"in"Audio Icon" in the captcha display.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "signup" on the top right corner.
+3. Enter the name email and password.
+4. Click on the captcha.
+5. Click on the Audio Icon.
+6. Click on the play button.</t>
+  </si>
+  <si>
+    <t>Audio should be played with some random name of the object.</t>
+  </si>
+  <si>
+    <t>TC_RF_0010</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the "Arrow Icon"in"Audio Icon" in the captcha display.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "signup" on the top right corner.
+3. Enter the name email and password.
+4. Click on the captcha.
+5. Click on the Audio Icon.
+6. Click on the Arrow Icon.</t>
+  </si>
+  <si>
+    <t>New tab should be opened and te voice should be played.</t>
+  </si>
+  <si>
+    <t>TC_RF_0011</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the "Audio Icon" by filling the invalid voice object name.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "signup" on the top right corner.
+3. Enter the name email and password.
+4. Click on the captcha.
+5. Click on the Audio Icon.
+6. Click on Click on the play button.
+7.Fill the tab with wrong credentials.
+8. Click on the verify button.</t>
+  </si>
+  <si>
+    <t>Object Name: Hamza</t>
+  </si>
+  <si>
+    <t>Error should be displayed about in valid object name.</t>
+  </si>
+  <si>
+    <t>TC_RF_0012</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the "Audio Icon" by filling the valid voice object name.</t>
+  </si>
+  <si>
+    <t>Object Name mentioned in captcha</t>
+  </si>
+  <si>
+    <t>Captcha verification should be successful.</t>
+  </si>
+  <si>
+    <t>TC_RF_0013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.User not be logged in yet to the app
+2. The audio icon should be opened. </t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "signup" on the top right corner.
+3. Enter the name email and password.
+4. Click on the captcha.
+5. Click on the Audio Icon.
+6. Click on Click on the Eye Icon.</t>
+  </si>
+  <si>
+    <t>User should be redirected to image captcha verification.</t>
+  </si>
+  <si>
+    <t>TC_RF_0014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.User not be logged in yet to the app
+2. The Image Captcha should be opened. </t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "signup" on the top right corner.
+3. Enter the name email and password.
+4. Click on the captcha.
+5. Click on the Help Icon.</t>
+  </si>
+  <si>
+    <t>Details of how to fill the captcha is mentioned below the image.</t>
+  </si>
+  <si>
+    <t>TC_RF_0015</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the "Eye Icon" in the audio tab.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the "Help Icon" in the image  tab.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the "Skip button" in the image  tab.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "signup" on the top right corner.
+3. Enter the name email and password.
+4. Click on the captcha.
+5. Click on the Skip button.</t>
+  </si>
+  <si>
+    <t>Captcha page should be refreshed and new imae should be displayed.</t>
+  </si>
+  <si>
+    <t>TC_RF_0016</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the "Verify button" display in the image  tab.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "signup" on the top right corner.
+3. Enter the name email and password.
+4. Click on the captcha.
+5. Select any random image the image.</t>
+  </si>
+  <si>
+    <t>Any random image</t>
+  </si>
+  <si>
+    <t>Skip button should be updtaed to verify buton</t>
+  </si>
+  <si>
+    <t>TC_RF_0017</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the "Verify button" display in the image  tab by not selecting any kind of image.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "signup" on the top right corner.
+3. Enter the name email and password.
+4. Click on the captcha.
+5. Don’t select any image.
+6. Click on the verify button</t>
+  </si>
+  <si>
+    <t>Message should be displayed "Please select all the matching images".</t>
+  </si>
+  <si>
+    <t>TC_RF_0018</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the "Verify button" display in the image  tab by  selecting wrong images.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "signup" on the top right corner.
+3. Enter the name email and password.
+4. Click on the captcha.
+5. Select wrong images.
+6. Click on the verify button</t>
+  </si>
+  <si>
+    <t>Wrong Images</t>
+  </si>
+  <si>
+    <t>TC_RF_0019</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the captcha count.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "signup" on the top right corner.
+3. Enter the name email and password.
+4. Click on the captcha.
+5. Select matching images.
+6. Click on the verify button</t>
+  </si>
+  <si>
+    <t>Matching Images</t>
   </si>
 </sst>
 </file>
@@ -552,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85252F2-3AEE-49F2-BAD6-E960FB08B1A1}">
   <dimension ref="A3:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,136 +983,351 @@
         <v>35</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="1"/>

--- a/Test Cases (splitwise).xlsx
+++ b/Test Cases (splitwise).xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Splitwise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43A7EED-AA99-4F63-A31C-C0EFFBCAA2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1711A1C-E017-4314-8B99-491E5C0A4291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E5A88738-20E6-4658-B6AD-BD823AD18E5F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{E5A88738-20E6-4658-B6AD-BD823AD18E5F}"/>
   </bookViews>
   <sheets>
     <sheet name="TS_001 (Register)" sheetId="2" r:id="rId1"/>
+    <sheet name="TS_002 (Login)" sheetId="3" r:id="rId2"/>
+    <sheet name="TS_003 (Forget Password)" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="231">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -246,9 +248,6 @@
     <t>Audio should be played with some random name of the object.</t>
   </si>
   <si>
-    <t>TC_RF_0010</t>
-  </si>
-  <si>
     <t>Validate the functionality of the "Arrow Icon"in"Audio Icon" in the captcha display.</t>
   </si>
   <si>
@@ -261,9 +260,6 @@
   </si>
   <si>
     <t>New tab should be opened and te voice should be played.</t>
-  </si>
-  <si>
-    <t>TC_RF_0011</t>
   </si>
   <si>
     <t>Validate the functionality of the "Audio Icon" by filling the invalid voice object name.</t>
@@ -285,9 +281,6 @@
     <t>Error should be displayed about in valid object name.</t>
   </si>
   <si>
-    <t>TC_RF_0012</t>
-  </si>
-  <si>
     <t>Validate the functionality of the "Audio Icon" by filling the valid voice object name.</t>
   </si>
   <si>
@@ -295,9 +288,6 @@
   </si>
   <si>
     <t>Captcha verification should be successful.</t>
-  </si>
-  <si>
-    <t>TC_RF_0013</t>
   </si>
   <si>
     <t xml:space="preserve">1.User not be logged in yet to the app
@@ -315,9 +305,6 @@
     <t>User should be redirected to image captcha verification.</t>
   </si>
   <si>
-    <t>TC_RF_0014</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.User not be logged in yet to the app
 2. The Image Captcha should be opened. </t>
   </si>
@@ -332,9 +319,6 @@
     <t>Details of how to fill the captcha is mentioned below the image.</t>
   </si>
   <si>
-    <t>TC_RF_0015</t>
-  </si>
-  <si>
     <t>Validate the functionality of the "Eye Icon" in the audio tab.</t>
   </si>
   <si>
@@ -354,9 +338,6 @@
     <t>Captcha page should be refreshed and new imae should be displayed.</t>
   </si>
   <si>
-    <t>TC_RF_0016</t>
-  </si>
-  <si>
     <t>Validate the functionality of the "Verify button" display in the image  tab.</t>
   </si>
   <si>
@@ -371,9 +352,6 @@
   </si>
   <si>
     <t>Skip button should be updtaed to verify buton</t>
-  </si>
-  <si>
-    <t>TC_RF_0017</t>
   </si>
   <si>
     <t>Validate the functionality of the "Verify button" display in the image  tab by not selecting any kind of image.</t>
@@ -390,9 +368,6 @@
     <t>Message should be displayed "Please select all the matching images".</t>
   </si>
   <si>
-    <t>TC_RF_0018</t>
-  </si>
-  <si>
     <t>Validate the functionality of the "Verify button" display in the image  tab by  selecting wrong images.</t>
   </si>
   <si>
@@ -407,9 +382,6 @@
     <t>Wrong Images</t>
   </si>
   <si>
-    <t>TC_RF_0019</t>
-  </si>
-  <si>
     <t>Validate the functionality of the captcha count.</t>
   </si>
   <si>
@@ -423,12 +395,597 @@
   <si>
     <t>Matching Images</t>
   </si>
+  <si>
+    <t>Verification for the image captcha should be of 2 times.</t>
+  </si>
+  <si>
+    <t>1.User not be logged in yet to the app
+2. The Image Captcha should be filled.</t>
+  </si>
+  <si>
+    <t>Name: Hamza 
+Email Address: khan00gmailcom
+Password: hamzss</t>
+  </si>
+  <si>
+    <t>Error message should be dispalyed about invalid email and password.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the sign up page when captcha is filled and with invalid Email Address.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the sign up page when captcha is filled and with invalid cridentials.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "signup" on the top right corner.
+3. Enter the name email and password.
+4. Click on the captcha.
+5. Select matching images.
+6. Click on the verify button
+7.Click on sign me up button</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "signup" on the top right corner.
+3. Enter the valid name invalid email and valid password.
+4. Click on the captcha.
+5. Select matching images.
+6. Click on the verify button
+7.Click on sign me up button</t>
+  </si>
+  <si>
+    <t>Name: Hamza 
+Email Address: khan00gmailcom
+Password: Hamza123alikhan</t>
+  </si>
+  <si>
+    <t>Error message should be dispalyed about invalid email address.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the sign up page when captcha is filled and with valid Email Address and invalid password.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "signup" on the top right corner.
+3. Enter the valid name valid email and invalid password.
+4. Click on the captcha.
+5. Select matching images.
+6. Click on the verify button
+7.Click on sign me up button</t>
+  </si>
+  <si>
+    <t>Name: Hamza 
+Email Address: khan00@gmail.com
+Password: Hamza</t>
+  </si>
+  <si>
+    <t>Error message should  be displayed about invalid password format.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the sign up page when captcha is filled and with empty input fields</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "signup" on the top right corner.
+3. Leave the input fields empty.
+4. Click on the captcha.
+5. Select matching images.
+6. Click on the verify button
+7.Click on sign me up button</t>
+  </si>
+  <si>
+    <t>Name:   .
+Email Address:  .
+Password: .</t>
+  </si>
+  <si>
+    <t>Error  message should be displayed about invalid credentials.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the sign up with google button with empty fields.</t>
+  </si>
+  <si>
+    <t>1.User not be logged in yet to the app
+2. The Image Captcha should be filled.
+3. all the fields should me empty.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "signup" on the top right corner.
+3. Leave the input fields empty.
+4. Click on the captcha.
+5. Select matching images.
+6. Click on the verify button
+7.Click on sign up with goolge.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the sign up with google button with valid credentials.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "signup" on the top right corner.
+3. Enter valid name email and password.
+4. Click on the captcha.
+5. Select matching images.
+6. Click on the verify button
+7.Click on sign up with goolge.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the by "signing up accept the terms of services"</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the by "signing up accept the terms of services" with empty fields</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the "USD currency".</t>
+  </si>
+  <si>
+    <t>1.User not be logged in yet to the app
+2. The Image Captcha should be filled.
+3. all the fields should be filled.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.User not be logged in yet to the app
+2. The Image Captcha should be filled.
+</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "signup" on the top right corner.
+3. Enter valid name email and password.
+4. Click on the captcha.
+5. Select matching images.
+6. Click on the verify button
+7.Click on "signing up and terms and servcies" link.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "signup" on the top right corner.
+3. Leave all the fields emtpy.
+4. Click on the captcha.
+5. Select matching images.
+6. Click on the verify button
+7.Click on "signing up and terms and servcies" link.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the "Sign up " with the detials that has already been registered.</t>
+  </si>
+  <si>
+    <t>1.User not be logged in yet to the app
+2. The Image Captcha should be filled.
+3. Registered details should be used</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the "Sign up " just with already registered name.</t>
+  </si>
+  <si>
+    <t>1.User not be logged in yet to the app
+2. The Image Captcha should be filled.
+3. Registered name should be used</t>
+  </si>
+  <si>
+    <t>Name: Hamza 
+Email Address: khan00@gmail.com
+Password: Hamza123likhan</t>
+  </si>
+  <si>
+    <t>Name: Hamza 
+Email Address: khan00@gmail.com
+Password: Hamza123alikhan.</t>
+  </si>
+  <si>
+    <t>Name: Hamza 
+Email Address: hamzakhan00@gmail.com
+Password: Hamza123alikhan*.</t>
+  </si>
+  <si>
+    <t>TC_RF_020</t>
+  </si>
+  <si>
+    <t>TC_RF_021</t>
+  </si>
+  <si>
+    <t>TC_RF_022</t>
+  </si>
+  <si>
+    <t>TC_RF_023</t>
+  </si>
+  <si>
+    <t>TC_RF_024</t>
+  </si>
+  <si>
+    <t>TC_RF_025</t>
+  </si>
+  <si>
+    <t>TC_RF_026</t>
+  </si>
+  <si>
+    <t>TC_RF_027</t>
+  </si>
+  <si>
+    <t>TC_RF_028</t>
+  </si>
+  <si>
+    <t>TC_RF_029</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the "Sign up " just with already registered email address.</t>
+  </si>
+  <si>
+    <t>1.User not be logged in yet to the app
+2. The Image Captcha should be filled.
+3. Registered Email should be used</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "signup" on the top right corner.
+3. Leave all the tabs fields empty.
+4. Click on the captcha.
+5. Select matching images.
+6. Click on the verify button
+7.Click on sign me up button .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the link https://www.splitwise.com
+2. Click on "signup" on the top right corner.
+3. Enter already registered name email and password.
+4. Click on the captcha.
+5. Select matching images.
+6. Click on the verify button
+7.Click on sign me up button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the link https://www.splitwise.com
+2. Click on "signup" on the top right corner.
+3. Enter already registered name only and new email and password.
+4. Click on the captcha.
+5. Select matching images.
+6. Click on the verify button
+7.Click on sign me up button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the link https://www.splitwise.com
+2. Click on "signup" on the top right corner.
+3. Enter already registered email only and new name and password.
+4. Click on the captcha.
+5. Select matching images.
+6. Click on the verify button
+7. Click on sign me up button </t>
+  </si>
+  <si>
+    <t>Name: Khan
+Email Address: khan00@gmail.com
+Password: Hamza123alikhan*.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the "Sign up with google " just with already registered email address.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the link https://www.splitwise.com
+2. Click on "signup" on the top right corner.
+3. Leav all the tabs empty.
+4. Click on the captcha.
+5. Select matching images.
+6. Click on the verify button
+7. Click on sign me up button </t>
+  </si>
+  <si>
+    <t>TC_RF_030</t>
+  </si>
+  <si>
+    <t>TC_RF_031</t>
+  </si>
+  <si>
+    <t>TC_RF_032</t>
+  </si>
+  <si>
+    <t>User should be navigte to new page the registered Email addres in the browser.</t>
+  </si>
+  <si>
+    <t>User should be directed to new tab for the terms and conditions for the splitwise.</t>
+  </si>
+  <si>
+    <t>A new tab should be appeared below the password field with the options of currency available.</t>
+  </si>
+  <si>
+    <t>TC_RF_033</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the "USD currency" by selecting any currrency.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "signup" on the top right corner.
+3. Click on the Currency link.
+4.Select the currency.</t>
+  </si>
+  <si>
+    <t>Currency: PKR.</t>
+  </si>
+  <si>
+    <t>PKR currency should be displayed in the tab.</t>
+  </si>
+  <si>
+    <t>Error message should be displayed about the "account has already been registered".</t>
+  </si>
+  <si>
+    <t>New account should be registered.</t>
+  </si>
+  <si>
+    <t>Error message should be displayed about the "Email has already been registered".</t>
+  </si>
+  <si>
+    <t>TC_RF_034</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "signup" on the top right corner.
+3. Click on the splitwise logo.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the splitwise logo in the left of the all tabs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.User not be logged in yet to the app
+</t>
+  </si>
+  <si>
+    <t>User should be redirected to Home Page.</t>
+  </si>
+  <si>
+    <t>(TS_002)
+Login Functionality</t>
+  </si>
+  <si>
+    <t>1. User must be logged out.</t>
+  </si>
+  <si>
+    <t>User should be logged in and navigate to home oage of the app.</t>
+  </si>
+  <si>
+    <t>TC_LF_01</t>
+  </si>
+  <si>
+    <t>TC_LF_02</t>
+  </si>
+  <si>
+    <t>Validate the functionlity of the Login using already registered credentials.</t>
+  </si>
+  <si>
+    <t>Validate the functionlity of the Login using non registered credentials.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email Address: khan00@gmail.com
+Password: Hamza123alikhan.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email Address: hamzakhan00@gmail.com
+Password: Hamza123alikhan.
+</t>
+  </si>
+  <si>
+    <t>Error should be displayed about "Email is not registered".</t>
+  </si>
+  <si>
+    <t>TC_LF_03</t>
+  </si>
+  <si>
+    <t>Email Address: . 
+Password: .</t>
+  </si>
+  <si>
+    <t>Error should be displayed about "empty fields".</t>
+  </si>
+  <si>
+    <t>TC_LF_04</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the error message when the input fields are emtpy and captcha is filled</t>
+  </si>
+  <si>
+    <t>Validate the functionlity of the  of login with empty fields without filling the captcha.</t>
+  </si>
+  <si>
+    <t>Error message should be displayed about empty fields.</t>
+  </si>
+  <si>
+    <t>TC_LF_05</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the "Sign in with google" link in the bottom of the login page.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "sign in" button on the top right corner.
+3. scroll down to the bottom of the page.
+4. Click on the "sign in with google" link.</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
+  </si>
+  <si>
+    <t>User should be navigate to the new tab with the email registered in the browser mentioned in the page.</t>
+  </si>
+  <si>
+    <t>Test Location</t>
+  </si>
+  <si>
+    <t>1. Register Page.
+2. Login Page.</t>
+  </si>
+  <si>
+    <t>TC_LF_06</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the login by usin registered Email address but wrong password.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "sign in" button on the top right corner.
+3. Enter registered  Email Address and wrong Password .
+4. Fill the captcha.
+5. Click on the Login button.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "sign in" button on the top right corner.
+3. Leave the fields empty.
+4. Filled the captcha.
+5. Click on the Login button.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "sign in" button on the top right corner.
+3. Leave the fields empty.
+4. Click on the Login button.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "sign in" button on the top right corner.
+3. Enter non-registered  Email Address .
+4. Fill the captcha.
+5. Click on the Login button.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "sign in" button on the top right corner.
+3. Enter registered  Email Address  and Password.
+4. Fill the captcha.
+5. Click on the Login button.</t>
+  </si>
+  <si>
+    <t>Password error should be displayed.</t>
+  </si>
+  <si>
+    <t>TC_FP_01</t>
+  </si>
+  <si>
+    <t>(TS_003)
+Forget Password</t>
+  </si>
+  <si>
+    <t>user should be logged out.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the link https://www.splitwise.com
+2. Click on "sign in" button on the top right corner.
+</t>
+  </si>
+  <si>
+    <t>Validate the navigation of the forget password page.</t>
+  </si>
+  <si>
+    <t>User should navigate to forget password page.</t>
+  </si>
+  <si>
+    <t>TC_FP_02</t>
+  </si>
+  <si>
+    <t>Validate the Display of the forget password page.</t>
+  </si>
+  <si>
+    <t>1 Two tabs of Email address and phone number should be displayed.
+2. Input field for the Email address is displayed.
+3. Captcha should be displayed.
+4. Reset Password button should be displayed.</t>
+  </si>
+  <si>
+    <t>TC_FP_03</t>
+  </si>
+  <si>
+    <t>Validate the Display of the phone number tab in forget password page .</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "sign in" button on the top right corner.
+3. Click on the phone number.</t>
+  </si>
+  <si>
+    <t>1. Tab with the country name and country code is displayed.
+2. emtpy tab should be displayed for the rest part of the phone number.</t>
+  </si>
+  <si>
+    <t>TC_FP_04</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the error message when the captcha and email both are empty.</t>
+  </si>
+  <si>
+    <t>Error message for empty email address should be displayed.</t>
+  </si>
+  <si>
+    <t>TC_FP_05</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the error message when the captcha and phone number both are empty.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "sign in" button on the top right corner.
+3. Leave the email and captcha empty.
+4. Click on the reset password button.</t>
+  </si>
+  <si>
+    <t>Email Address .
+Captcha. Not filled.</t>
+  </si>
+  <si>
+    <t>Phone number.
+Captcha. Not filled.</t>
+  </si>
+  <si>
+    <t>Error message for Phone number should be displayed. address should be displayed.</t>
+  </si>
+  <si>
+    <t>TC_FP_06</t>
+  </si>
+  <si>
+    <t>TC_FP_07</t>
+  </si>
+  <si>
+    <t>TC_FP_08</t>
+  </si>
+  <si>
+    <t>TC_FP_09</t>
+  </si>
+  <si>
+    <t>TC_FP_10</t>
+  </si>
+  <si>
+    <t>TC_FP_11</t>
+  </si>
+  <si>
+    <t>TC_FP_12</t>
+  </si>
+  <si>
+    <t>TC_FP_13</t>
+  </si>
+  <si>
+    <t>TC_FP_14</t>
+  </si>
+  <si>
+    <t>TC_FP_15</t>
+  </si>
+  <si>
+    <t>TC_FP_16</t>
+  </si>
+  <si>
+    <t>TC_FP_17</t>
+  </si>
+  <si>
+    <t>TC_FP_18</t>
+  </si>
+  <si>
+    <t>TC_FP_19</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,6 +999,12 @@
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -470,7 +1033,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -495,6 +1058,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -810,10 +1376,984 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85252F2-3AEE-49F2-BAD6-E960FB08B1A1}">
-  <dimension ref="A3:L24"/>
+  <dimension ref="A3:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="D6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="6" width="37.7109375" customWidth="1"/>
+    <col min="7" max="7" width="41.28515625" customWidth="1"/>
+    <col min="8" max="8" width="30.42578125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="35.5703125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0009D874-CD7C-4BFD-8D72-C9B29303BD60}">
+  <dimension ref="A3:L37"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,7 +2389,7 @@
       <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="8" t="s">
@@ -868,134 +2408,577 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>193</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>23</v>
+        <v>192</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>26</v>
+        <v>178</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>28</v>
+        <v>191</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>29</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="3"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="3"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="3"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4B5C8C-34B9-473F-8104-F8A070180F10}">
+  <dimension ref="A3:L37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" customWidth="1"/>
+    <col min="6" max="6" width="41.28515625" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="35.5703125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>208</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>33</v>
+        <v>213</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>31</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>31</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>37</v>
+        <v>217</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>43</v>
@@ -1004,10 +2987,7 @@
         <v>27</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>40</v>
@@ -1016,10 +2996,10 @@
     <row r="10" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>41</v>
+        <v>218</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>44</v>
@@ -1028,22 +3008,19 @@
         <v>27</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>46</v>
+        <v>219</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>47</v>
@@ -1052,10 +3029,7 @@
         <v>27</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>49</v>
@@ -1064,10 +3038,10 @@
     <row r="12" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>51</v>
@@ -1076,263 +3050,346 @@
         <v>27</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>58</v>
+        <v>222</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>63</v>
+        <v>223</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="1" t="s">
         <v>65</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>67</v>
+        <v>224</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="H16" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="E17" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="H17" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>75</v>
+        <v>226</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>81</v>
+        <v>227</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>86</v>
+        <v>228</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>94</v>
+        <v>230</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="1"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="3"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="3"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="3"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Test Cases (splitwise).xlsx
+++ b/Test Cases (splitwise).xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Splitwise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1711A1C-E017-4314-8B99-491E5C0A4291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97626A2C-C9A6-4EAB-8A37-7A4AAC98CC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{E5A88738-20E6-4658-B6AD-BD823AD18E5F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{E5A88738-20E6-4658-B6AD-BD823AD18E5F}"/>
   </bookViews>
   <sheets>
     <sheet name="TS_001 (Register)" sheetId="2" r:id="rId1"/>
     <sheet name="TS_002 (Login)" sheetId="3" r:id="rId2"/>
     <sheet name="TS_003 (Forget Password)" sheetId="4" r:id="rId3"/>
+    <sheet name="TS_004 (Headr&gt; Your account.)" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="377">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -869,11 +870,6 @@
     <t>user should be logged out.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Open the link https://www.splitwise.com
-2. Click on "sign in" button on the top right corner.
-</t>
-  </si>
-  <si>
     <t>Validate the navigation of the forget password page.</t>
   </si>
   <si>
@@ -898,11 +894,6 @@
     <t>Validate the Display of the phone number tab in forget password page .</t>
   </si>
   <si>
-    <t>1. Open the link https://www.splitwise.com
-2. Click on "sign in" button on the top right corner.
-3. Click on the phone number.</t>
-  </si>
-  <si>
     <t>1. Tab with the country name and country code is displayed.
 2. emtpy tab should be displayed for the rest part of the phone number.</t>
   </si>
@@ -979,6 +970,677 @@
   </si>
   <si>
     <t>TC_FP_19</t>
+  </si>
+  <si>
+    <t>TC_FP_20</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the forget password using invalid Email address.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.User not be logged in yet to the app
+2. The Image Captcha should be selected. </t>
+  </si>
+  <si>
+    <t>Email Address: khan00@gmail.com</t>
+  </si>
+  <si>
+    <t>TC_FP_21</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the forget password using valid Email address.</t>
+  </si>
+  <si>
+    <t>Email Address: khan00gmailcom</t>
+  </si>
+  <si>
+    <t>Error message should be displayed about the invalid email format.</t>
+  </si>
+  <si>
+    <t>Email should be received in the provided email address.</t>
+  </si>
+  <si>
+    <t>TC_FP_22</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the email message in forget password.</t>
+  </si>
+  <si>
+    <t>Message should be displayed about "Verification code sent to your email address."</t>
+  </si>
+  <si>
+    <t>TC_FP_23</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the received link in email message in forget password.</t>
+  </si>
+  <si>
+    <t>A link should me given in the received email.</t>
+  </si>
+  <si>
+    <t>TC_FP_24</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the set password by after setting the password.</t>
+  </si>
+  <si>
+    <t>Message should be displayed about "Password hah been updated".</t>
+  </si>
+  <si>
+    <t>TC_FP_25</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the set password by entering old password.</t>
+  </si>
+  <si>
+    <t>Error should be displayed about the "Password is already in use".</t>
+  </si>
+  <si>
+    <t>TC_FP_26</t>
+  </si>
+  <si>
+    <t>Email Address: khan00@gmail.com
+Password: Hamza123ali*</t>
+  </si>
+  <si>
+    <t>Email Address: khan00@gmail.com
+Password: Hamza123alikhan</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the set password by using invalid phone number.</t>
+  </si>
+  <si>
+    <t>1.User not be logged in yet to the app
+2. The Image Captcha should be selected. 
+3. Phone numer of Pakistan should be used</t>
+  </si>
+  <si>
+    <t>country code : +92 (Pakistan).
+Phone number: 3149755066.</t>
+  </si>
+  <si>
+    <t>country code : +92 (Pakistan).
+Phone number: 31497550667.</t>
+  </si>
+  <si>
+    <t>Error should be displayed about the Invalid phone number.</t>
+  </si>
+  <si>
+    <t>TC_FP_27</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the set password by using valid phone number.</t>
+  </si>
+  <si>
+    <t>An SMS should be sent to the SMS of the given phone number.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "sign in" button on the top right corner.
+3. Click on the forget password button.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "sign in" button on the top right corner.
+3. Click on the forget password button.
+4. Click on the phone number tab.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "sign in" button on the top right corner.
+3. Leave the phone number and captcha empty.
+4. Click on the reset password button.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "sign in" button on the top right corner.
+3. Click on the forget password button.
+4. Click on the captcha link.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "sign in" button on the top right corner.
+3. Click on the forget password button.
+4. Click on the captcha link.
+5. Click on the refresh icon.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "sign in" button on the top right corner.
+3. Click on the forget password button.
+4. Click on the captcha link.
+5. Click on the audio icon.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "sign in" button on the top right corner.
+3. Click on the forget password button.
+4. Click on the captcha link.
+5. Click on the audio icon.
+6. Click on the arrow icon.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "sign in" on the top right corner.
+3. Click on the forget password.
+4. Click on the captcha.
+5. Click on the Audio Icon.
+6. Click on Click on the play button.
+7.Fill the tab with wrong credentials.
+8. Click on the verify button.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "sign in" on the top right corner.
+3. Click on the forget password button.
+4. Click on the captcha.
+5. Click on the Audio Icon.
+6. Click on Click on the Eye Icon.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "sign in" on the top right corner.
+3. Click on the forget password  button.
+4. Click on the captcha.
+5. Click Click on the audio icon.
+6. Click again on the Eye icon.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "sign in" on the top right corner.
+3. Click on the forget password  button.
+4. Click on the captcha.
+5. Help Icon.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "sign in" on the top right corner.
+3. Enter the name email and password.
+4. Click on the captcha.
+5. Select matching images.
+6. Click on the verify button</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "sign in" on the top right corner.
+3.Click on the forget password button.
+4. Enter invalid Email adress.
+5. Fill the captcha..
+6. Click on the verify button.
+7. Click on the Reset password button.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "sign in" on the top right corner.
+3.Click on the forget password button.
+4. Enter valid Email adress.
+5. Fill the captcha..
+6. Click on the verify button.
+7. Click on the Reset password button.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "sign in" on the top right corner.
+3.Click on the forget password button.
+4. Enter valid Email adress.
+5. Fill the captcha..
+6. Click on the verify button.
+7. Click on the Reset password button.
+8. check the link sent to the given mail.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "sign in" on the top right corner.
+3.Click on the forget password button.
+4. Enter valid Email adress.
+5. Fill the captcha..
+6. Click on the verify button.
+7. Click on the Reset password button.
+8. Clickthe link sent to the given mail.
+9. Enter new password.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "sign in" on the top right corner.
+3.Click on the forget password button.
+4. Enter valid Email adress.
+5. Fill the captcha..
+6. Click on the verify button.
+7. Click on the Reset password button.
+8. Clickthe link sent to the given mail.
+9. Enter the old password password.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "sign in" on the top right corner.
+3.Click on the forget password button.
+4. Click on the phone number tab.
+5. Select country code
+6.Enter the invalid phone number.
+7. Fill the captcha.
+8. Click on the verify button.
+9. Click on the reset password button.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "sign in" on the top right corner.
+3.Click on the forget password button.
+4. Click on the phone number tab.
+5. Select country code
+6.Enter the valid phone number.
+7. Fill the captcha.
+8. Click on the verify button.
+9. Click on the reset password button.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "sign in" on the top right corner.
+3. Click on the forget password  button.
+4. Click on the captcha.
+5. Click on the skip button.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "sign in" on the top right corner.
+3. Enter the name email and password.
+4. Click on the captcha.
+5. Select any image.
+6. Click on the verify button</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "sign in" on the top right corner.
+3. Enter the name email and password.
+4. Click on the captcha.
+5. Don't select any image.
+6. Click on the verify button</t>
+  </si>
+  <si>
+    <t>1. Open the link https://www.splitwise.com
+2. Click on "sign in" on the top right corner.
+3. Enter the name email and password.
+4. Click on the captcha.
+5. Select all the mentioned images.
+6. Click on the verify button</t>
+  </si>
+  <si>
+    <t>TC_HA_01</t>
+  </si>
+  <si>
+    <t>(TS_004)
+Header_Your account</t>
+  </si>
+  <si>
+    <t>Validate the display of the the dropdown header in the top right corner.</t>
+  </si>
+  <si>
+    <t>User must be loged in.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the top-right corner on the registered username.</t>
+  </si>
+  <si>
+    <t>Five links should be displayed in  the dropdown menu.
+1. Your Account.
+2. Create group.
+3. Fairness Calculator.
+4. Contact Support.
+5. Logout.</t>
+  </si>
+  <si>
+    <t>TC_HA_02</t>
+  </si>
+  <si>
+    <t>Validate the display of the the your account page in the dropdown header in the top right corner.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the top-right corner on the registered username.
+4. Click on the your account link.</t>
+  </si>
+  <si>
+    <t>User Should be navigated to Your account page.</t>
+  </si>
+  <si>
+    <t>Validate the Navigation of the the your account page in the dropdown header in the top right corner.</t>
+  </si>
+  <si>
+    <t>TC_HA_03</t>
+  </si>
+  <si>
+    <t>4 sub heading should be displayed in the your account page with respective details.
+1. Your account.
+2. Notifications.
+3. Privacy &amp; Security.
+4. Advanced features.</t>
+  </si>
+  <si>
+    <t>TC_HA_04</t>
+  </si>
+  <si>
+    <t>Validate the display of the sub heading (your account) in your account page in the dropdown header in the top right corner.</t>
+  </si>
+  <si>
+    <t>1. Profile picture or Avatar should be mentioned with the choose file option below the avatar.
+2. Name with edit link.
+3. Email with edit link.
+4. Phone number with edit link.
+5. Password with edit link.
+6. Tab for the currency.
+7. Tab for the time zone.
+8. Tab for language.
+9. connect with google account link.
+10. Split wise pro option .
+11. Save button.</t>
+  </si>
+  <si>
+    <t>TC_HA_05</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the profile picture or avatar by choosing word/ excel file from the PC.</t>
+  </si>
+  <si>
+    <t>Error should be displayed 
+"Avatar You are not allowed to upload "xlsx/docx" files. Allowed file types include jpg, jpeg, gif, png, bmp, webp".</t>
+  </si>
+  <si>
+    <t>TC_HA_06</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the profile picture or avatar by choosing any image from the PC.</t>
+  </si>
+  <si>
+    <t>Excel or word file</t>
+  </si>
+  <si>
+    <t>Valid image</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the top-right corner on the registered username.
+4. Click on the your account link.
+5. Click on the choose file link below the avatar.
+6. Choose any random image from the Pc.
+7.Click on the save button.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the top-right corner on the registered username.
+4. Click on the your account link.
+5. Click on the choose file link below the avatar.
+6. Choose any random word or excel file.
+7. Click on the save button.</t>
+  </si>
+  <si>
+    <t>Image should be changed and the avatar should be replaced with the uploaded image across the page.</t>
+  </si>
+  <si>
+    <t>TC_HA_07</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the Sub heading in your account dropdown heading by editing the fieds with empty spaces..</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the top-right corner on the registered username.
+4. Click on the your account link.
+5. Leave all the editible fields empty.
+6. Click on the save button.</t>
+  </si>
+  <si>
+    <t>Name: empty .
+Phone number.</t>
+  </si>
+  <si>
+    <t>Error should be displayed about empty name and phone number</t>
+  </si>
+  <si>
+    <t>TC_HA_08</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the Sub heading in your account dropdown heading by editing the name and phone number.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the top-right corner on the registered username.
+4. Click on the your account link.
+5. Enter phone number and name.
+6. Click on the save button.</t>
+  </si>
+  <si>
+    <t>Name: Iqbal:
+Phone number: 316-8895432.</t>
+  </si>
+  <si>
+    <t>Name and phone number should be updated.</t>
+  </si>
+  <si>
+    <t>TC_HA_09</t>
+  </si>
+  <si>
+    <t>Validate the functionality of adding email in "your account " drop down menu in the topright corner of the page.</t>
+  </si>
+  <si>
+    <t>User must be loged in.
+1 Email should be registered already</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the top-right corner on the registered username.
+4. Click on the your account link.
+5. Add new Email.
+6.Add the password that is saved in the app
+6. Click on the save button.</t>
+  </si>
+  <si>
+    <t>Email: hamzakhan123@gmail.com
+Password: Hamzakhan12.</t>
+  </si>
+  <si>
+    <t>1. Email should be added in the app
+2. Confirmation should be sent to the added email.</t>
+  </si>
+  <si>
+    <t>TC_HA_10</t>
+  </si>
+  <si>
+    <t>Validate the functionality of confirmation button in adding email in "your account " drop down menu in the topright corner of the page.</t>
+  </si>
+  <si>
+    <t>User must be loged in.
+1 Email should be registered already
+1 uncomfired email should be added.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the top-right corner on the registered username.
+4. Click on the your account link.
+5. Click Edit button respective to Email.
+6. Click on the "uncomfired button".</t>
+  </si>
+  <si>
+    <t>A confirmation messae should be sent to the respective email address.</t>
+  </si>
+  <si>
+    <t>TC_HA_11</t>
+  </si>
+  <si>
+    <t>Validate the functionality of  adding more than 2  email in "your account " drop down menu in the topright corner of the page.</t>
+  </si>
+  <si>
+    <t>User must be loged in.
+2 Email should be registered already</t>
+  </si>
+  <si>
+    <t>Email: hamza123kjhan@gmail.com</t>
+  </si>
+  <si>
+    <t>TC_HA_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User must be loged in.
+atleast 2 Email should be registered </t>
+  </si>
+  <si>
+    <t>1 in home page click the top right corner.
+2. Select the "Your account " in the dropdown menu.
+3. Click on the edit button in the email.
+4. Click on the cross icon.</t>
+  </si>
+  <si>
+    <t>Input field should be mentioned with text "Enter your current password to remove this email address:" along with cancel and confirm button.</t>
+  </si>
+  <si>
+    <t>TC_HA_13</t>
+  </si>
+  <si>
+    <t>TC_HA_14</t>
+  </si>
+  <si>
+    <t>Vaidate the functionality of deleting the email In  your account dropdown menu.</t>
+  </si>
+  <si>
+    <t>Vaidate the functionality of deleting the email In  your account dropdown menu using invalid password.</t>
+  </si>
+  <si>
+    <t>1 in home page click the top right corner.
+2. Select the "Your account " in the dropdown menu.
+3. Click on the edit button in the email.
+4. Click on the cross icon.
+5. Enter wrong password</t>
+  </si>
+  <si>
+    <t>Password: hamza123</t>
+  </si>
+  <si>
+    <t>Vaidate the functionality of deleting the email In  your account dropdown menu leaving the  password field empty.</t>
+  </si>
+  <si>
+    <t>1 in home page click the top right corner.
+2. Select the "Your account " in the dropdown menu.
+3. Click on the edit button in the email.
+4. Click on the cross icon.
+5. Leave the password field empty.</t>
+  </si>
+  <si>
+    <t>Password: empty.</t>
+  </si>
+  <si>
+    <t>TC_HA_15</t>
+  </si>
+  <si>
+    <t>Vaidate the functionality of deleting the email In  your account dropdown menu using valid password.</t>
+  </si>
+  <si>
+    <t>1 in home page click the top right corner.
+2. Select the "Your account " in the dropdown menu.
+3. Click on the edit button in the email.
+4. Click on the cross icon.
+5. Enter Valid Password.</t>
+  </si>
+  <si>
+    <t>Password: Hamza123khan</t>
+  </si>
+  <si>
+    <t>Email should be deleted.</t>
+  </si>
+  <si>
+    <t>TC_HA_16</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the phone number by adding invalid format.</t>
+  </si>
+  <si>
+    <t>1 in home page click the top right corner.
+2. Select the "Your account " in the dropdown menu.
+3. Click on the edit link in respective to phone number.
+4. enter invalid phone number format.
+5. Click on save button.</t>
+  </si>
+  <si>
+    <t>Phone number : 31699859355</t>
+  </si>
+  <si>
+    <t>Error should be displayed about invalid phone number.</t>
+  </si>
+  <si>
+    <t>TC_HA_17</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the password by using same older password and and new pssword</t>
+  </si>
+  <si>
+    <t>1 in home page click the top right corner.
+2. Select the "Your account " in the dropdown menu.
+3. Click on the edit link in respective to phone number.
+4. enter password and confirm password.
+5. Click on save button.</t>
+  </si>
+  <si>
+    <t>Password: Hamza456han</t>
+  </si>
+  <si>
+    <t>Error should be displayed about both passwords are same</t>
+  </si>
+  <si>
+    <t>TC_HA_18</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the currency checking by choosing PKR currency</t>
+  </si>
+  <si>
+    <t>PKR Currency should be selected in the tab.</t>
+  </si>
+  <si>
+    <t>TC_HA_19</t>
+  </si>
+  <si>
+    <t>Time Zone: Islamabad.</t>
+  </si>
+  <si>
+    <t>Islamabad Time zone should be selected in the tab.</t>
+  </si>
+  <si>
+    <t>1 in home page click the top right corner.
+2. Select the "Your account " in the dropdown menu.
+3. Select the currency.
+4. Click on the save button.</t>
+  </si>
+  <si>
+    <t>1 in home page click the top right corner.
+2. Select the "Your account " in the dropdown menu.
+3. Select the time zone.
+4. Click on the save button.</t>
+  </si>
+  <si>
+    <t>TC_HA_20</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the time zone checking by choosing Time zone of islamabad.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the checking by choosing English as a language.</t>
+  </si>
+  <si>
+    <t>1 in home page click the top right corner.
+2. Select the "Your account " in the dropdown menu.
+3. Select the Language.
+4. Click on the save button.</t>
+  </si>
+  <si>
+    <t>Language : English</t>
+  </si>
+  <si>
+    <t>English language should be selected accros the page.</t>
   </si>
 </sst>
 </file>
@@ -1033,7 +1695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1061,6 +1723,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1378,8 +2043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85252F2-3AEE-49F2-BAD6-E960FB08B1A1}">
   <dimension ref="A3:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="D6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="D24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2353,7 +3018,7 @@
   <dimension ref="A3:L37"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2798,8 +3463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4B5C8C-34B9-473F-8104-F8A070180F10}">
   <dimension ref="A3:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2862,120 +3527,120 @@
         <v>196</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>197</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>198</v>
+        <v>261</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>183</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>197</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>198</v>
+        <v>261</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>183</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>197</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>206</v>
+        <v>262</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>183</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>197</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>197</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>38</v>
+        <v>263</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>196</v>
@@ -2987,16 +3652,19 @@
         <v>27</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>42</v>
+        <v>264</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>196</v>
@@ -3008,7 +3676,10 @@
         <v>27</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>48</v>
+        <v>265</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>45</v>
@@ -3017,7 +3688,7 @@
     <row r="11" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>196</v>
@@ -3029,7 +3700,10 @@
         <v>27</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>52</v>
+        <v>266</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>49</v>
@@ -3038,7 +3712,7 @@
     <row r="12" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>196</v>
@@ -3050,230 +3724,1040 @@
         <v>27</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>55</v>
+        <v>266</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="3"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="3"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="3"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59DA570-F10C-4AE1-B9CA-7AD91AAD9F89}">
+  <dimension ref="A3:L37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" customWidth="1"/>
+    <col min="6" max="6" width="41.28515625" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="35.5703125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>221</v>
+        <v>326</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>54</v>
+        <v>285</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>327</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>27</v>
+        <v>328</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>58</v>
+        <v>329</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>222</v>
+        <v>331</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>57</v>
+        <v>285</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>332</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>27</v>
+        <v>333</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>58</v>
+        <v>323</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>334</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>223</v>
+        <v>335</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>196</v>
+        <v>285</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>61</v>
+        <v>341</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>27</v>
+        <v>336</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>65</v>
+        <v>337</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>224</v>
+        <v>339</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>196</v>
+        <v>285</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>70</v>
+        <v>342</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>64</v>
+        <v>336</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>68</v>
+        <v>343</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>344</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>225</v>
+        <v>340</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>196</v>
+        <v>285</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>71</v>
+        <v>345</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>67</v>
+        <v>336</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>73</v>
+        <v>346</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>347</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>226</v>
+        <v>348</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>196</v>
+        <v>285</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>72</v>
+        <v>349</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>67</v>
+        <v>336</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>76</v>
+        <v>350</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>351</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>227</v>
+        <v>353</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>196</v>
+        <v>285</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>75</v>
+        <v>354</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>67</v>
+        <v>287</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>80</v>
+        <v>355</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>356</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>228</v>
+        <v>358</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>196</v>
+        <v>285</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>67</v>
+        <v>287</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>83</v>
+        <v>360</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>361</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>229</v>
+        <v>363</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>196</v>
+        <v>285</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>82</v>
+        <v>364</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>67</v>
+        <v>287</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>86</v>
+        <v>369</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>153</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>230</v>
+        <v>366</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>196</v>
+        <v>285</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>85</v>
+        <v>372</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>67</v>
+        <v>287</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>86</v>
+        <v>370</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>367</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="1"/>
+      <c r="B23" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
@@ -3389,7 +4873,6 @@
       <c r="G37" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Test Cases (splitwise).xlsx
+++ b/Test Cases (splitwise).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Splitwise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97626A2C-C9A6-4EAB-8A37-7A4AAC98CC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA5F4F8-825D-460D-947F-19D521DE318B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{E5A88738-20E6-4658-B6AD-BD823AD18E5F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="420">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -1641,6 +1641,181 @@
   </si>
   <si>
     <t>English language should be selected accros the page.</t>
+  </si>
+  <si>
+    <t>TC_HA_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate the functionality of the notificatons in "Your account" dropdown menu. </t>
+  </si>
+  <si>
+    <t>1 In home page click the top right corner.
+2. Select the "Your account " in the dropdown menu.
+3. Clcik any notification icon.
+4. Click on the save button.</t>
+  </si>
+  <si>
+    <t>The color of the messagae icon should be changed with a low gradient.</t>
+  </si>
+  <si>
+    <t>TC_HA_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_HA_22 </t>
+  </si>
+  <si>
+    <t>Validate the display of he "Privacy and Security" section of "Your account" page.</t>
+  </si>
+  <si>
+    <t>1 In home page click the top right corner.
+2. Select the "Your account " in the dropdown menu.
+3. Scroll down the page to Privacy &amp; Security button.</t>
+  </si>
+  <si>
+    <t>1. 4 buttons should be mentioned
+        a. Your apps.
+        b. Recent Visits.
+        c. Logout on all devices.
+        d. Manage Your blocklist.
+2. Check box of friend suggestions.</t>
+  </si>
+  <si>
+    <t>TC_HA_23</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the "Your apps " button in  "Privacy and Security" section of "Your account" page.</t>
+  </si>
+  <si>
+    <t>1 In home page click the top right corner.
+2. Select the "Your account " in the dropdown menu.
+3. Scroll down the page to Privacy &amp; Security button.
+4. Click on the Your apps button.</t>
+  </si>
+  <si>
+    <t>User should navigate to the page of bulding own application.</t>
+  </si>
+  <si>
+    <t>TC_HA_24</t>
+  </si>
+  <si>
+    <t>Validate the Display of the "Recent Visits" button in  "Privacy and Security" section of "Your account" page.</t>
+  </si>
+  <si>
+    <t>1 In home page click the top right corner.
+2. Select the "Your account " in the dropdown menu.
+3. Scroll down the page to Privacy &amp; Security button.
+4. Click on the recent visits buttons button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>1. Link of the contact support should be mentioned.
+2. table with (Time, Device, Estimated loction) should be mentioned.
+3. show additional technical details button should be mentioned</t>
+  </si>
+  <si>
+    <t>Validate the Display of the of "Contact Support " link in "Recent Visits" button in  "Privacy and Security" section of "Your account" page.</t>
+  </si>
+  <si>
+    <t>1 In home page click the top right corner.
+2. Select the "Your account " in the dropdown menu.
+3. Scroll down the page to Privacy &amp; Security button.
+4. Click on the recent visits buttons button.
+5. Click on the Contact &amp; Support button.</t>
+  </si>
+  <si>
+    <t>User should navigate to the contact and support page.</t>
+  </si>
+  <si>
+    <t>TC_HA_26</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the "Recent Visits" button in  "Privacy and Security" section of "Your account" page login in different devices..</t>
+  </si>
+  <si>
+    <t>User must be logged in in different devices.</t>
+  </si>
+  <si>
+    <t>Devices:
+1. I phone
+2. Android. 
+3. Windows.</t>
+  </si>
+  <si>
+    <t>Time Device and Location should be mentioned in the table when logged in to the device.</t>
+  </si>
+  <si>
+    <t>TC_HA_27</t>
+  </si>
+  <si>
+    <t>Validate the Display of the "Recent Visits" button in  "Privacy and Security" section of "Your account" page by selecting "Show additional technical details".</t>
+  </si>
+  <si>
+    <t>1 In home page click the top right corner.
+2. Select the "Your account " in the dropdown menu.
+3. Scroll down the page to Privacy &amp; Security button.
+4.Login using multiple devices.
+5. Click on the recent visits buttons button.
+6. Click on the Contact &amp; Support button.</t>
+  </si>
+  <si>
+    <t>Table should be mentioned with 5 headings.
+1.Time
+2. Device.
+3. User Agent.
+4. Estimated Location.
+5. IP Address.
+Along with their respective details.</t>
+  </si>
+  <si>
+    <t>TC_HA_28</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the "Log out on all devices" button in  "Privacy and Security" section of "Your account" page while being logged in only one device...</t>
+  </si>
+  <si>
+    <t>1 In home page click the top right corner.
+2. Select the "Your account " in the dropdown menu.
+3. Scroll down the page to Privacy &amp; Security button.
+4. Click on the "log out all devices" button.</t>
+  </si>
+  <si>
+    <t>User should be logged out right after clicking the button.</t>
+  </si>
+  <si>
+    <t>TC_HA_29</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the "Log out on all devices" button in  "Privacy and Security" section of "Your account" page while being logged in more than one devices.</t>
+  </si>
+  <si>
+    <t>User must be loged in atleast in 2 devices.</t>
+  </si>
+  <si>
+    <t>User shold be logged out from all the devices.</t>
+  </si>
+  <si>
+    <t>TC_HA_30</t>
+  </si>
+  <si>
+    <t>Validate the display of  "manage your block list" button in  "Privacy and Security" section of "Your account" page while being logged in more than one devices.</t>
+  </si>
+  <si>
+    <t>1. User must be loged in.
+2. no account should be blocked yet.</t>
+  </si>
+  <si>
+    <t>1 In home page click the top right corner.
+2. Select the "Your account " in the dropdown menu.
+3. Scroll down the page to Privacy &amp; Security button.
+4. Click on the "manage your block list" button.</t>
+  </si>
+  <si>
+    <t>1.User should navigate to new tab along with some details about the blocked account 
+2.Message should me displayed  about no one is blocked yet.
+3. input field for the Email.
+4. Block button.</t>
   </si>
 </sst>
 </file>
@@ -4225,8 +4400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59DA570-F10C-4AE1-B9CA-7AD91AAD9F89}">
   <dimension ref="A3:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4591,7 +4766,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>340</v>
@@ -4615,7 +4790,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>348</v>
@@ -4639,7 +4814,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>353</v>
@@ -4663,7 +4838,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>358</v>
@@ -4687,7 +4862,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>363</v>
@@ -4711,7 +4886,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>366</v>
@@ -4735,7 +4910,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>371</v>
@@ -4759,88 +4934,241 @@
         <v>376</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="3"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="3"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="1"/>
       <c r="D34" s="4"/>
@@ -4848,7 +5176,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="1"/>
       <c r="D35" s="4"/>
@@ -4856,7 +5184,7 @@
       <c r="F35" s="5"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="1"/>
       <c r="D36" s="4"/>
@@ -4864,7 +5192,7 @@
       <c r="F36" s="5"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="1"/>
       <c r="D37" s="4"/>

--- a/Test Cases (splitwise).xlsx
+++ b/Test Cases (splitwise).xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Splitwise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA5F4F8-825D-460D-947F-19D521DE318B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB7CB91-48E1-4AC5-B511-A4B12440EEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{E5A88738-20E6-4658-B6AD-BD823AD18E5F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="5" xr2:uid="{E5A88738-20E6-4658-B6AD-BD823AD18E5F}"/>
   </bookViews>
   <sheets>
     <sheet name="TS_001 (Register)" sheetId="2" r:id="rId1"/>
     <sheet name="TS_002 (Login)" sheetId="3" r:id="rId2"/>
     <sheet name="TS_003 (Forget Password)" sheetId="4" r:id="rId3"/>
     <sheet name="TS_004 (Headr&gt; Your account.)" sheetId="5" r:id="rId4"/>
+    <sheet name="TS_005 (Headar&gt;Create group)" sheetId="6" r:id="rId5"/>
+    <sheet name="TS_006 (Headar&gt;Fairness Cal)" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="534">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -1816,6 +1818,495 @@
 2.Message should me displayed  about no one is blocked yet.
 3. input field for the Email.
 4. Block button.</t>
+  </si>
+  <si>
+    <t>TC_HA_31</t>
+  </si>
+  <si>
+    <t>Validate the functionality of  "manage your block list" button in  "Privacy and Security" section of  with providing an invalid Email address.</t>
+  </si>
+  <si>
+    <t>1 In home page click the top right corner.
+2. Select the "Your account " in the dropdown menu.
+3. Scroll down the page to Privacy &amp; Security button.
+4. Click on the "manage your block list" button.
+5. Enter Invaid Email Address.
+6. Click on the block button.</t>
+  </si>
+  <si>
+    <t>Email: fsdfagmail.com</t>
+  </si>
+  <si>
+    <t>Error should be displayed about invalid Email format.</t>
+  </si>
+  <si>
+    <t>TC_HA_32</t>
+  </si>
+  <si>
+    <t>Validate the functionality of  "manage your block list" button in  "Privacy and Security" section of  with providing an own Email Address.</t>
+  </si>
+  <si>
+    <t>Email : hamzakhan@gmail.com</t>
+  </si>
+  <si>
+    <t>Error should be displayed.</t>
+  </si>
+  <si>
+    <t>TC_HA_33</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the check box for the suggestion of the friends.</t>
+  </si>
+  <si>
+    <t>1. User must be loged in.</t>
+  </si>
+  <si>
+    <t>1 In home page click the top right corner.
+2. Select the "Your account " in the dropdown menu.
+3. Scroll down the page to Privacy &amp; Security button.
+4. Click on the  check box.
+5. Click on the save button.</t>
+  </si>
+  <si>
+    <t>Check box should be selected after saving and regreshing the page.</t>
+  </si>
+  <si>
+    <t>TC_HA_34</t>
+  </si>
+  <si>
+    <t>Validate the display  of    "Advance Feature"section of  your account drop down menu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 In home page click the top right corner.
+2. Select the "Your account " in the dropdown menu.
+3. Scroll down the page to Advance Feature.
+</t>
+  </si>
+  <si>
+    <t>Four buttons should be displayed 
+1.Get Splitwise pro.
+2. Merge with another account.
+3. Delete your account.
+4. Save.</t>
+  </si>
+  <si>
+    <t>TC_HA_35</t>
+  </si>
+  <si>
+    <t>Validate the navigation of    "Get splitwise pro" button in "Advance Feature"section of  your account drop down menu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 In home page click the top right corner.
+2. Select the "Your account " in the dropdown menu.
+3. Scroll down the page to Advance Feature.
+4. Click on the Splitwise pro button.
+</t>
+  </si>
+  <si>
+    <t>User Should be navigated to Splitwise pro plan page.</t>
+  </si>
+  <si>
+    <t>TC_HA_36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 In home page click the top right corner.
+2. Select the "Your account " in the dropdown menu.
+3. Scroll down the page to Advance Feature.
+4. Click on the "Merge with another account "button.
+</t>
+  </si>
+  <si>
+    <t>1. User should be navigated to the merge with another account page.
+2. Warning message should be displayed.
+3. 1 default Email should be mentioned along with the password.
+4. two tabs for Email and password should be displayed fot the merge account</t>
+  </si>
+  <si>
+    <t>TC_HA_37</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the merging two accounts by just providing Password for the registered own email address</t>
+  </si>
+  <si>
+    <t>1 In home page click the top right corner.
+2. Select the "Your account " in the dropdown menu.
+3. Scroll down the page to Advance Feature.
+4. Click on the "Merge with another account "button.
+5. Enter the Password for just default Emai Address.</t>
+  </si>
+  <si>
+    <t>Password: Hamzakhan.</t>
+  </si>
+  <si>
+    <t>Error should be displayed about the empty mergeable email address.</t>
+  </si>
+  <si>
+    <t>TC_HA_38</t>
+  </si>
+  <si>
+    <t>Validate the navigation and Display of "Merge with another account" button in "Advance Feature"section of  your account drop down menu.</t>
+  </si>
+  <si>
+    <t>Validate the navigation and Display of "Delete your account" button in "Advance Feature"section of  your account drop down menu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 In home page click the top right corner.
+2. Select the "Your account " in the dropdown menu.
+3. Scroll down the page to Advance Feature.
+4. Click on the "Delete your account"button.
+</t>
+  </si>
+  <si>
+    <t>1. Input field should be mentioned with the password.
+2. One button for the delet your account.
+3. one button for the send Email.</t>
+  </si>
+  <si>
+    <t>TC_HA_39</t>
+  </si>
+  <si>
+    <t>Validate the functionality of delete your account by leaving the input field empty.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 In home page click the top right corner.
+2. Select the "Your account " in the dropdown menu.
+3. Scroll down the page to Advance Feature.
+4. Click on the "Delete your account"button.
+5. Leave the input field empty.
+6. Click on the Delete your account button.
+</t>
+  </si>
+  <si>
+    <t>Error should me mentioned about the password field is empty.</t>
+  </si>
+  <si>
+    <t>TC_HA_40</t>
+  </si>
+  <si>
+    <t>Validate the functionality of delete your account by providing wrong password .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 In home page click the top right corner.
+2. Select the "Your account " in the dropdown menu.
+3. Scroll down the page to Advance Feature.
+4. Click on the "Delete your account"button.
+5. Enter the password.
+6. Click on the Delete your account button.
+</t>
+  </si>
+  <si>
+    <t>Password: Hamzaaaaa.</t>
+  </si>
+  <si>
+    <t>Error should be mentioned about wrong password.</t>
+  </si>
+  <si>
+    <t>TC_HA_41</t>
+  </si>
+  <si>
+    <t>Validate the functionality of delete your account by by sending message on email.</t>
+  </si>
+  <si>
+    <t>1 In home page click the top right corner.
+2. Select the "Your account " in the dropdown menu.
+3. Scroll down the page to Advance Feature.
+4. Click on the "Delete your account"button.
+5. Click on the send Email button.</t>
+  </si>
+  <si>
+    <t>Email should be sent to the registered email address.</t>
+  </si>
+  <si>
+    <t>TC_HA_42</t>
+  </si>
+  <si>
+    <t>Validate the functionality of confirmation message while deleting account by using password.</t>
+  </si>
+  <si>
+    <t>Confirmation message should be popped up for the deletion of account.</t>
+  </si>
+  <si>
+    <t>TC_HA_43</t>
+  </si>
+  <si>
+    <t>1 In home page click the top right corner.
+2. Select the "Your account " in the dropdown menu.
+3. Scroll down the page to Advance Feature.
+4. Click on the "Delete your account"button.
+5. Enter the password.
+6. Click on the Send Email.
+7. Open the mail and click on the link.</t>
+  </si>
+  <si>
+    <t>Account should be deleted successfully.</t>
+  </si>
+  <si>
+    <t>TC_CG_01</t>
+  </si>
+  <si>
+    <t>(TS_005)
+Header_Create Group.</t>
+  </si>
+  <si>
+    <t>Validate the navigation and display of the the "Creat group" in dropdown header in the top right corner.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the top-right corner on the registered username.
+4. Click on the "Create group Link"</t>
+  </si>
+  <si>
+    <t>1. User should be navigated to Create group page.
+2.input field for the should be displayed.
+3. Save button should be displayed.
+4. Choose file button should be displayed to select the image for the group.</t>
+  </si>
+  <si>
+    <t>TC_CG_02</t>
+  </si>
+  <si>
+    <t>Validate the display of the create group page's other field by entering name in the name field.</t>
+  </si>
+  <si>
+    <t>1.User must be loged in.
+2. Name should be entered in the name field.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the top-right corner on the registered username.
+4. Click on the "Create group Link"
+5. Enter the name.</t>
+  </si>
+  <si>
+    <t>Name: Hamza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Following things should be displyayed.
+1. an Invite link
+2. by default two tabs of name and email address 3 in numbers vertically along with the cross icon.
+4. Add person button.
+5. dropdown button for grou type (Home, Trip, Couple, Other).
+6. link titled "Advance Settings".
+7. Button titled "Save".
+</t>
+  </si>
+  <si>
+    <t>TC_CG_03</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the group picture by choosing word/ excel file from the PC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the top-right corner on the registered username.
+4. Click on the "Create group Link"
+5. Enter the name.
+6. Click on Choose file button.
+7. Choose any word file.
+</t>
+  </si>
+  <si>
+    <t>File type: docx</t>
+  </si>
+  <si>
+    <t>Error should be displayed 
+" You are not allowed to upload "xlsx/docx" files. Allowed file types include jpg, jpeg, gif, png, bmp, webp".</t>
+  </si>
+  <si>
+    <t>TC_CG_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the top-right corner on the registered username.
+4. Click on the "Create group Link"
+5. Enter the name.
+6. Click on Choose file button.
+7. Choose any image.
+</t>
+  </si>
+  <si>
+    <t>file type: JPG.</t>
+  </si>
+  <si>
+    <t>TC_CG_05</t>
+  </si>
+  <si>
+    <t>Validate the display of the invite link in the create group page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the top-right corner on the registered username.
+4. Click on the "Create group Link"
+5.Click on the invite link button.
+</t>
+  </si>
+  <si>
+    <t>Input fields of name and email address should be replaced with an invitation link and with a link titled " or add group members manually".</t>
+  </si>
+  <si>
+    <t>TC_CG_06</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the " or add group members manually".</t>
+  </si>
+  <si>
+    <t>1.User must be loged in.
+2. Name should be entered in the name field.
+3. Ivite link button should be clicked.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the top-right corner on the registered username.
+4. Click on the "Create group Link"
+5.Click on the invite link button.
+6.Click on the " or add group members manually" button.</t>
+  </si>
+  <si>
+    <t>Input fields of name and email address should be displayed again.</t>
+  </si>
+  <si>
+    <t>TC_CG_07</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the cross icon displayed beside the input fields for adding members.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the top-right corner on the registered username.
+4. Click on the "Create group Link"
+5.Click on the cross icon.</t>
+  </si>
+  <si>
+    <t>tab of name and email should be deleted after clicking on corss icon to their relevant fields.</t>
+  </si>
+  <si>
+    <t>TC_CG_08</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the creating group by adding just one member i.e default email.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the top-right corner on the registered username.
+4. Click on the "Create group Link"
+5.click on the save button.</t>
+  </si>
+  <si>
+    <t>Error should be displayed about "1 person can not be added to group".</t>
+  </si>
+  <si>
+    <t>TC_CG_09</t>
+  </si>
+  <si>
+    <t>Validate the functionality of adding people without using Email Address.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the top-right corner on the registered username.
+4. Click on the "Create group Link"
+5.Enter name in adding people section.
+6.click on the save button.</t>
+  </si>
+  <si>
+    <t>TC_CG_10</t>
+  </si>
+  <si>
+    <t>Validate the functionality of adding people without using Name.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the top-right corner on the registered username.
+4. Click on the "Create group Link"
+5.Enter Email in adding people section.
+6.click on the save button.</t>
+  </si>
+  <si>
+    <t>Name: Hamza.</t>
+  </si>
+  <si>
+    <t>Name: hamzaiqbal.devv@gmail.com</t>
+  </si>
+  <si>
+    <t>Error should be displayed about "name can not br blank".</t>
+  </si>
+  <si>
+    <t>Group shall be created with the person name in the home page but warning should be displayed "this person will not get any notification".</t>
+  </si>
+  <si>
+    <t>TC_CG_11</t>
+  </si>
+  <si>
+    <t>Validate the functionality add a person link.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the top-right corner on the registered username.
+4. Click on the "Create group Link"
+5.Click on the add to person link.</t>
+  </si>
+  <si>
+    <t>1 more input fields should be displayed including 2 tabs for name and Email address.</t>
+  </si>
+  <si>
+    <t>TC_CG_12</t>
+  </si>
+  <si>
+    <t>Validate the display of Group type while making a group.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the top-right corner on the registered username.
+4. Click on the "Create group Link"
+5.Scroll down to group type section.
+6. Click on group type.</t>
+  </si>
+  <si>
+    <t>4 group types should be displayed vertically.
+1. Home.
+2. Trip.
+3. Couple.
+4. Other.</t>
+  </si>
+  <si>
+    <t>TC_CG_13</t>
+  </si>
+  <si>
+    <t>Validate the display of Group type in home page while selecting any of these group type.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the top-right corner on the registered username.
+4. Click on the "Create group Link"
+5.Scroll down to group type section.
+6. Click on group type.
+7. Select the group types.
+8.Click on save button.</t>
+  </si>
+  <si>
+    <t>1. Home icon for home group type should be displayed in the profile picture of the group.
+2.Aeroplane icon for trip group type should be displayed in the profile picture of the group.
+3.Heart icon for home couple type should be displayed in the profile picture of the group.
+4. list icon for other group type should be displayed in the profile picture of the group.</t>
+  </si>
+  <si>
+    <t>TC_FC_01</t>
+  </si>
+  <si>
+    <t>(TS_006)
+Header_Fairness Calculator.</t>
   </si>
 </sst>
 </file>
@@ -4398,10 +4889,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59DA570-F10C-4AE1-B9CA-7AD91AAD9F89}">
-  <dimension ref="A3:L37"/>
+  <dimension ref="A3:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView topLeftCell="C8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5168,7 +5659,828 @@
         <v>419</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>473</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0952769-082E-43D6-83ED-5B550090F540}">
+  <dimension ref="A3:L46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" customWidth="1"/>
+    <col min="6" max="6" width="41.28515625" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="35.5703125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="10"/>
+      <c r="I27" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="1"/>
       <c r="D34" s="4"/>
@@ -5176,7 +6488,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="1"/>
       <c r="D35" s="4"/>
@@ -5184,7 +6496,7 @@
       <c r="F35" s="5"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="1"/>
       <c r="D36" s="4"/>
@@ -5192,7 +6504,7 @@
       <c r="F36" s="5"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="1"/>
       <c r="D37" s="4"/>
@@ -5200,6 +6512,524 @@
       <c r="F37" s="5"/>
       <c r="G37" s="1"/>
     </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="3"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="3"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="3"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="3"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="3"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="3"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="3"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="3"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="3"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0988788C-B934-465C-9B43-D1B35F53A56B}">
+  <dimension ref="A3:L46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" customWidth="1"/>
+    <col min="6" max="6" width="41.28515625" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="35.5703125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="1"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="10"/>
+      <c r="I27" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="3"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="3"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="3"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="3"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="3"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="3"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="3"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="3"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="3"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="3"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="3"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="3"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test Cases (splitwise).xlsx
+++ b/Test Cases (splitwise).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Splitwise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB7CB91-48E1-4AC5-B511-A4B12440EEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97DBC35-85F2-4D56-9556-59E6A7AF0E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="5" xr2:uid="{E5A88738-20E6-4658-B6AD-BD823AD18E5F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="10" xr2:uid="{E5A88738-20E6-4658-B6AD-BD823AD18E5F}"/>
   </bookViews>
   <sheets>
     <sheet name="TS_001 (Register)" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,12 @@
     <sheet name="TS_003 (Forget Password)" sheetId="4" r:id="rId3"/>
     <sheet name="TS_004 (Headr&gt; Your account.)" sheetId="5" r:id="rId4"/>
     <sheet name="TS_005 (Headar&gt;Create group)" sheetId="6" r:id="rId5"/>
-    <sheet name="TS_006 (Headar&gt;Fairness Cal)" sheetId="7" r:id="rId6"/>
+    <sheet name="TS_006 (Headar&gt;Contact Support)" sheetId="7" r:id="rId6"/>
+    <sheet name="TS_007 (Headar&gt;Logout)" sheetId="8" r:id="rId7"/>
+    <sheet name="TS_008 (Home Page&gt;Dash Board) " sheetId="9" r:id="rId8"/>
+    <sheet name="TS_009 (Home Page&gt;Recent Activi" sheetId="10" r:id="rId9"/>
+    <sheet name="TS_010 (Home Page&gt;All expenses)" sheetId="11" r:id="rId10"/>
+    <sheet name="TS_011 (Home Page&gt; Groups)" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="847">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -2302,11 +2307,1457 @@
 4. list icon for other group type should be displayed in the profile picture of the group.</t>
   </si>
   <si>
-    <t>TC_FC_01</t>
+    <t>TC_CS_01</t>
   </si>
   <si>
     <t>(TS_006)
-Header_Fairness Calculator.</t>
+Header_Contact Support.</t>
+  </si>
+  <si>
+    <t>Validate the navigation and display of the the "Contact Support" in dropdown header in the top right corner.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the top-right corner on the registered username.
+4. Click on the "Contact Support"</t>
+  </si>
+  <si>
+    <t>1. User should be navigated to Contact support page.
+2.Email Address should be displayed.
+3. Link for feedback should be displayed.</t>
+  </si>
+  <si>
+    <t>TC_CS_02</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the Email link in contact support page.</t>
+  </si>
+  <si>
+    <t>1.Click on the top-right corner on the registered username.
+2. Click on the "Contact Support"
+3. Click on the Email link.</t>
+  </si>
+  <si>
+    <t>Email link should be open in the new page.</t>
+  </si>
+  <si>
+    <t>TC_CS_03</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the Feedback link in contact support page.</t>
+  </si>
+  <si>
+    <t>1.Click on the top-right corner on the registered username.
+2. Click on the "Contact Support"
+3. Click on the Feedback link.</t>
+  </si>
+  <si>
+    <t>User should be navigated to splitwise feedback page.</t>
+  </si>
+  <si>
+    <t>TC_LO_01</t>
+  </si>
+  <si>
+    <t>(TS_007)
+Header_logout</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the the "Logout" in dropdown header in the top right corner.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the top-right corner on the registered username.
+4. Click on the "Logout" link.</t>
+  </si>
+  <si>
+    <t>Warning should be displayed "Your account will be logged out".</t>
+  </si>
+  <si>
+    <t>TC_DB_01</t>
+  </si>
+  <si>
+    <t>(TS_008)
+Home Page_ Dash Board</t>
+  </si>
+  <si>
+    <t>Validate the display of the home page.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.</t>
+  </si>
+  <si>
+    <t>TC_DB_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Home page should be displayed with the following things.
+     a. Dahsboard.
+     B. Recent activity.
+     C. Groups section with add button.
+     D. Friends section with add button.
+     E. invite friends section with email tab and send invite button.
+     D. Facebook button.
+     F. Tweet button. 
+</t>
+  </si>
+  <si>
+    <t>Validate the display of the Dashboard.</t>
+  </si>
+  <si>
+    <t>At the center of the page add an expense button and settle up button should be displayed.</t>
+  </si>
+  <si>
+    <t>TC_DB_03</t>
+  </si>
+  <si>
+    <t>Validate the display of the "Add and expense button" in Dashboard.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the Dash board Link.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the Dasho board Link.
+5. Click on the add an expense button.</t>
+  </si>
+  <si>
+    <t>one Email tab should be displayed along with cancel and save button.</t>
+  </si>
+  <si>
+    <t>TC_DB_04</t>
+  </si>
+  <si>
+    <t>Validate the display of the "Add and expense button" in Dashboard after writing atleast one alphabet in Email tab.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the Dasho board Link.
+5. Click on the add an expense button.
+6. Enter atleast one alphabet in the Email tab.</t>
+  </si>
+  <si>
+    <t>1. Icon should be displayed for the category of the expense.
+2. One tab for Description.
+3. one tab for Amount.
+4. one link for the person who paid with "you" text by default.
+5. one link for the distribution with "equally" by default 
+6. Button for date selection with latest date by default.
+5. one buttone for images or notes.</t>
+  </si>
+  <si>
+    <t>TC_DB_05</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the Dasho board Link.
+5. Click on the add an expense button.
+6. Enter Same Email address that used to register the account.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the Dasho board Link.
+5. Click on the add an expense button.
+6. Leave the Email tab empty.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the add expense button in dashboard by leaving email tab empty.</t>
+  </si>
+  <si>
+    <t>TC_DB_06</t>
+  </si>
+  <si>
+    <t>TC_DB_07</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the add expense button in dashboard by leaving all tabs empty.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the Dasho board Link.
+5. Click on the add an expense button.
+6. Leave all the tab empty.</t>
+  </si>
+  <si>
+    <t>1. Warning for email should be displayed.
+2. Warning for Description should be displayed "Enter the description"</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the add expense button in dashboard by leaving amount tab empty.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the Dasho board Link.
+5. Click on the add an expense button.
+6. Leave Email and add Description the tab empty.
+7. Leave the Amount tab empty.</t>
+  </si>
+  <si>
+    <t>Email: Empty.
+Description : Empty.
+Amount : Empty.</t>
+  </si>
+  <si>
+    <t>Email: Empty.
+Description : Book.
+Amount : Empty.</t>
+  </si>
+  <si>
+    <t>1. Warning for email should be displayed.
+2. Warning for Description should be displayed "Must Enter the amount".</t>
+  </si>
+  <si>
+    <t>Warning alert shoul be displayed and nothing should be displayed after addind expenses.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the add expense button in dashboard by using same Email address that is used to register the account.</t>
+  </si>
+  <si>
+    <t>Email: Empty.
+Description : Book.
+Amount : 200.</t>
+  </si>
+  <si>
+    <t>1.User must be loged in.
+2. All tabs should be empty.</t>
+  </si>
+  <si>
+    <t>1.User must be loged in.
+2. Description and amount tab should not be empty.</t>
+  </si>
+  <si>
+    <t>1.User must be loged in.
+2. Description tab should not be empty.</t>
+  </si>
+  <si>
+    <t>Email: hamzaakhan123@gmail.com
+Description : Book.
+Amount : 200.</t>
+  </si>
+  <si>
+    <t>Error alert should be displayed
+"A person was included on this expense multiple times".</t>
+  </si>
+  <si>
+    <t>TC_DB_08</t>
+  </si>
+  <si>
+    <t>TC_DB_09</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the add expense button in dashboard by using valid email address.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the Dasho board Link.
+5. Click on the add an expense button.
+6. Enter Email.
+7. Click on save button.</t>
+  </si>
+  <si>
+    <t>Email: hamzaiqbal.dev@gmai.com.</t>
+  </si>
+  <si>
+    <t>Expense should be added and mentioned in the Dashboard tab.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the add expense button in dashboard by adding amount with eight 0 figures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.User must be loged in.
+</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the Dasho board Link.
+5. Click on the add an expense button.
+6. Enter Amount.
+7. Click on save button.</t>
+  </si>
+  <si>
+    <t>Email: hamzaiqbal.dev@gmai.com.
+Description : Book.
+Amount : 200000000.</t>
+  </si>
+  <si>
+    <t>Amount should be added</t>
+  </si>
+  <si>
+    <t>TC_DB_10</t>
+  </si>
+  <si>
+    <t>TC_DB_11</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the button "paid by".</t>
+  </si>
+  <si>
+    <t>Email: hamzaiqbal.dev@gmai.com.
+Description : Book.
+Amount : 200.</t>
+  </si>
+  <si>
+    <t>A mini box should be appear on the right of the add expense details with the registered email i.e you and the emails that has been added to the expense.</t>
+  </si>
+  <si>
+    <t>TC_DB_12</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the button "paid by" by choosing other person email for the expense.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the Dash board Link.
+5. Click on the add an expense button.
+6. Enter Email, Description and Amount.
+7.Click on paid by you button.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the Dash board Link.
+5. Click on the add an expense button.
+6. Enter Email, Description and Amount.
+7.Click on paid by you button.
+8.Click on the email of the person that has share in the expense.</t>
+  </si>
+  <si>
+    <t>In the add to expense button "you" should be replaced with the person's email that made the payment.</t>
+  </si>
+  <si>
+    <t>TC_DB_13</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the button "paid by equally".</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the Dash board Link.
+5. Click on the add an expense button.
+6. Enter Email, Description and Amount.
+7.Click on paid by you button.
+8.Click on the the equally button.</t>
+  </si>
+  <si>
+    <t>3 buttons shoud be displayed.
+1. Split the expense.
+2. you owe "Email of the shared expense person" and amount.
+3. "Email of the shared expense person" ows you and amount.
+7 buttons with icon
+1.Split Equally.
+2.Split by excat amount.
+3. Split by pecentage.
+4. Split by shares.
+5. Split by adjustment.
+6. Reimbursement.
+7. Itemized Expense.
+along with the Email mentioned below that have shared in the expense.with check boxes and amount.</t>
+  </si>
+  <si>
+    <t>TC_DB_14</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the button "paid by equally" by selecting you owe the expense.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the Dash board Link.
+5. Click on the add an expense button.
+6. Enter Email, Description and Amount.
+7.Click on paid by you button.
+8.Click on the the equally button.
+9. CLick on the you owe shared person email and amount button.</t>
+  </si>
+  <si>
+    <t>the above mentioned 7 mini buttons should be disspaear and the selected options shoud become highlighted.</t>
+  </si>
+  <si>
+    <t>TC_DB_15</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the button "paid by equally" by selecting added person owe the expense.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the Dash board Link.
+5. Click on the add an expense button.
+6. Enter Email, Description and Amount.
+7.Click on paid by you button.
+8.Click on the the equally button.
+9. CLick on the person email owes you and amount button.</t>
+  </si>
+  <si>
+    <t>TC_DB_16</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the button Date button in add expense.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the Dash board Link.
+5. Click on the add an expense button.
+6. Enter Email, Description and Amount.
+7.Click on the date button.</t>
+  </si>
+  <si>
+    <t>A calender should be opened on the right side of the add expense details along with the repeat.</t>
+  </si>
+  <si>
+    <t>TC_DB_17</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the repeat button in Date button in add expense.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the Dash board Link.
+5. Click on the add an expense button.
+6. Enter Email, Description and Amount.
+7.Click on the date button.
+8. CLick on the repeat. button.</t>
+  </si>
+  <si>
+    <t>five options should be displayed as dropdown 
+1. Just this once.
+2. Weekly.
+3. Fortnightly.
+4. Monthly.
+5. Yearly.</t>
+  </si>
+  <si>
+    <t>TC_DB_18</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the repeat button in Date button in add expense by selecting any other option except "Just this one".</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the Dash board Link.
+5. Click on the add an expense button.
+6. Enter Email, Description and Amount.
+7.Click on the date button.
+8. CLick on the repeat. button.
+9. Select any repeatation date except just this one.</t>
+  </si>
+  <si>
+    <t>Email: hamzaiqbal.dev@gmai.com.
+Description : Book.
+Amount : 200.
+Repeats time: Weekly</t>
+  </si>
+  <si>
+    <t>Another tab should be displayed below the repeats buttton with the following sub buttons
+1. No reminder.
+2. on the day of.
+3. 1 day early.
+4. 3 days early.
+5. 5 days early.
+6. 1 Week early.
+7. 2 Weeks early.</t>
+  </si>
+  <si>
+    <t>TC_DB_19</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the repeat button in Date button in add expense by selecting back "just this once".except "Just this one".</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the Dash board Link.
+5. Click on the add an expense button.
+6. Enter Email, Description and Amount.
+7.Click on the date button.
+8. CLick on the repeat. button.
+9. Select any repeatation date except just this one.
+10. Click on the just this once button again.</t>
+  </si>
+  <si>
+    <t>Email: hamzaiqbal.dev@gmai.com.
+Description : Book.
+Amount : 200.
+Repeats time: Just this once</t>
+  </si>
+  <si>
+    <t>Reminder tab should be dissapear.</t>
+  </si>
+  <si>
+    <t>TC_DB_20</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the Add Images Notes button in add to expense button.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the Dash board Link.
+5. Click on the add an expense button.
+6. Enter Email, Description and Amount.
+7.Click on the add images and notes button.</t>
+  </si>
+  <si>
+    <t>attach PDF file and input field for the notes should be appear to the right of the  add expense details.</t>
+  </si>
+  <si>
+    <t>TC_DB_21</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the add expense by adding an expense.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the Dash board Link.
+5. Click on the add an expense button.
+6. Enter Email, Description and Amount.
+7.Click on the save button</t>
+  </si>
+  <si>
+    <t>Expense should be added</t>
+  </si>
+  <si>
+    <t>TC_DB_22</t>
+  </si>
+  <si>
+    <t>Validate the functionality and layout of the added expense after adding an expense.</t>
+  </si>
+  <si>
+    <t>TC_DB_23</t>
+  </si>
+  <si>
+    <t>Validate the functionality add expense when payment is made by "you" and only one person is added.</t>
+  </si>
+  <si>
+    <t>1. Amount should be displayed below Heading of "total balance" with the divided amount in green color with + sign.
+2. You owe detail should remain 0 with grey color.
+3. You are owed amount should be updated and the divided amiunt should be mentioned in green color with + sign.</t>
+  </si>
+  <si>
+    <t>TC_DB_24</t>
+  </si>
+  <si>
+    <t>Validate the functionality add expense when payment is made by "other person" and only one person is added.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the Dash board Link.
+5. Click on the add an expense button.
+6. Enter Email, Description and Amount.
+7.Click on the you button and select the other user as payment maker.
+8.Click on the save button</t>
+  </si>
+  <si>
+    <t>below the Dash board heading 3 sub headings should be displauyed 
+1. Total balance
+2. You owe.
+3. You are owed.
+2 links of view as list and veiw as chart
+A button below the view as list and chart button should be displayed on the right where the details is mentioned according to list or chart.</t>
+  </si>
+  <si>
+    <t>1. Amount should be displayed below Heading of "total balance" with the divided amount in red color with - sign.
+2. You owe detail should be displayed with the divided amount in red color .
+3. You are owed amount should remain 0 with the grey color.
+5. Vew as list or chart details shoulb be displayed on the left when amount is paid by someone else.</t>
+  </si>
+  <si>
+    <t>TC_DB_25</t>
+  </si>
+  <si>
+    <t>Validate the functionality add expense when payment is made by "you" and more than one person is added.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the Dash board Link.
+5. Click on the add an expense button.
+6. Enter two Email, Description and Amount.
+7.Click on the you button and select the other user as payment maker.
+8.Click on the save button</t>
+  </si>
+  <si>
+    <t>Email: hamzaiqbal.dev@gmai.com.
+hamzakhan@gmail.com 
+Description : Book.
+Amount : 200.</t>
+  </si>
+  <si>
+    <t>1. Amount should be displayed below Heading of "total balance"  divided by 3 amount in green color with + sign.
+2. You owe detail should remain 0 with grey color.
+3. You are owed amount should be updated and the divided amiunt should be mentioned in green color with + sign.
+4. On the right bottom the detail of the 2 person added to the expense should be displayed.</t>
+  </si>
+  <si>
+    <t>TC_DB_26</t>
+  </si>
+  <si>
+    <t>Validate the functionality add expense when payment is made by "other person" and more than one person is added.</t>
+  </si>
+  <si>
+    <t>TC_DB_27</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the Dash board Link.
+5.Click on the view as list button.</t>
+  </si>
+  <si>
+    <t>Following things should be displayed
+1. Profile image or avatar.
+2.Email address of the person that shared the expense.
+3. Amount of expense per head in green color.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the view as list button and the details that will be dsiplayed when payment is made by "you".</t>
+  </si>
+  <si>
+    <t>TC_DB_28</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the view as Chart button and the details that will be dsiplayed when payment is made by "you".</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the Dash board Link.
+5.Click on the view as Chart button.</t>
+  </si>
+  <si>
+    <t>Following things should be displayed
+1.Email address of the person that shared the expense.
+2. Amount of expense per head in.
+3. And green color should cover the text as a back ground color.</t>
+  </si>
+  <si>
+    <t>TC_DB_29</t>
+  </si>
+  <si>
+    <t>Following things should be displayed in the left of the Dash board section.
+1. Profile image or avatar.
+2.Email address of the person that shared the expense.
+3. Amount of expense per head in red color.</t>
+  </si>
+  <si>
+    <t>TC_DB_30</t>
+  </si>
+  <si>
+    <t>Following things should be displayed
+1.Email address of the person that shared the expense.
+2. Amount of expense per head in.
+3. And red  color should cover the text as a back ground color.2</t>
+  </si>
+  <si>
+    <t>TC_DB_31</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the added person details by clicking on it.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the Dash board Link.
+5.Click on the view as Chart button.
+6. Click on the details of the person that shared the expense.</t>
+  </si>
+  <si>
+    <t>User should be navigaed to Friends section of the home page mentioned  in the left side of the home page.</t>
+  </si>
+  <si>
+    <t>TC_DB_33</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the settle up button when the amount is paid by you.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the Dash board Link.
+5.Click on the settle up button.
+6. Click on record a cash payment.
+7. Add amount.</t>
+  </si>
+  <si>
+    <t>1. By deffault 0 amount should be entered when the payment is made by you.
+2. the amount should be added in the previous divided amount.</t>
+  </si>
+  <si>
+    <t>TC_DB_34</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the settle up button when the amount is paid by other person.</t>
+  </si>
+  <si>
+    <t>1. By default the shared  amount should be entered that is shared in the expense when the payment is made by other person.
+2. The expense should be deleted and you are all settle up message should be displayed.</t>
+  </si>
+  <si>
+    <t>TC_RA_01</t>
+  </si>
+  <si>
+    <t>(TS_009)
+Home Page_ Recent Activity.</t>
+  </si>
+  <si>
+    <t>Validate the display of the Recent activity in the home page.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the recent activity button.</t>
+  </si>
+  <si>
+    <t>1. User must be loged in.
+2. Some Expense should be added.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Following items should be displayed.
+1. Icon for the type of expense along with the profile pic or avatar.
+2. Description for the type of the payment.
+3. Amouont in green when you pay tha amount or amount in red when someone else pay the amount for you.
+4. Date when the expense is added.
+</t>
+  </si>
+  <si>
+    <t>TC_RA_02</t>
+  </si>
+  <si>
+    <t>Validate the functonality of the Recent activity in the home page.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the recent activity button.
+5. Click on any expense.</t>
+  </si>
+  <si>
+    <t>User should be navigated to All Expense Page.</t>
+  </si>
+  <si>
+    <t>TC_AE_01</t>
+  </si>
+  <si>
+    <t>(TS_010)
+Home Page_ All Expanses.</t>
+  </si>
+  <si>
+    <t>Validate the display of the All Expenses in the home page.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the All Expenses button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Add Expense and Settle up button should be displayed.
+2.Date below the buttons.
+3. Below the month details of the expense
+      </t>
+  </si>
+  <si>
+    <t>TC_AE_02</t>
+  </si>
+  <si>
+    <t>Validate the display of the All Expenses in the home page when payment is paid person to person.</t>
+  </si>
+  <si>
+    <t>1. User must be loged in.
+2. Person to person Expense should be added.</t>
+  </si>
+  <si>
+    <t>Following things should be displayed horizentally.
+1. Currency icon.
+2. Description for the amount paid by and for whom paid.
+3. you received are you paid text.
+4. Amount in red when you received or amont in green when you paid.</t>
+  </si>
+  <si>
+    <t>TC_AE_03</t>
+  </si>
+  <si>
+    <t>Validate the display of the All Expenses in the home page when payment is shared for some item.</t>
+  </si>
+  <si>
+    <t>1. User must be loged in.
+2. Expense for item should be added.</t>
+  </si>
+  <si>
+    <t>Following things should be displayed horizentally.
+1. Date should be displyed.
+2. Icon accoding to the nature of the expense.
+3. you received are you paid text.
+4. Amount in red when you received or amont in green when you paid.</t>
+  </si>
+  <si>
+    <t>TC_AE_04</t>
+  </si>
+  <si>
+    <t>Validate the functionality of delete icon in all expense tab.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the All Expenses button.
+5. Hover over the details of the expense.
+6. Click on the delete icon</t>
+  </si>
+  <si>
+    <t>Item should be deleted form the list.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of Edit Button in all expense tab.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the All Expenses button.
+5. Hover over the details of the expense.
+6. Click on the Edit Button.
+7. Edit the amount.</t>
+  </si>
+  <si>
+    <t>The amount should be edited and updtadet from the previous amount.</t>
+  </si>
+  <si>
+    <t>TC_AE_05</t>
+  </si>
+  <si>
+    <t>Validate the functionality of Edit Button in all expense tab while changing the person of makin payment.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the All Expenses button.
+5. Hover over the details of the expense.
+6. Click on the Edit Button.
+7. select other person for the payment.</t>
+  </si>
+  <si>
+    <t>1. Description should be changed.
+2. Amount should be chnged and the color should become red.</t>
+  </si>
+  <si>
+    <t>TC_AE_06</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the balances in the right of the all expenses details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User must be loged in.
+2. Expense for item should be added.
+3. You paid an amount. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the All Expenses button.
+5. Hover over the details of the expense.
+</t>
+  </si>
+  <si>
+    <t>The amount in the balance icon should be displayed for thr payment you made in green color.</t>
+  </si>
+  <si>
+    <t>TC_AE_07</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the balances in the right of the all expenses details when the amount is paid by someone else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User must be loged in.
+2. Expense for item should be added.
+3. Other person paid an amount. </t>
+  </si>
+  <si>
+    <t>The amount in the balance icon should be displayed for thr payment you made in red color.</t>
+  </si>
+  <si>
+    <t>TC_AE_08</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the balance by making two different payment while one is paid and other is received.</t>
+  </si>
+  <si>
+    <t>1. First the amount should be displayed in green when the payment is made.
+2. Second the same amount should be received and the amount int the balance should be 0.</t>
+  </si>
+  <si>
+    <t>TC_AE_09</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the balance by making two payments in which received amount is high and paid amount is low</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the All Expenses button.
+5. Enter the Paid the amount.
+6. Enter expense for the received amount.</t>
+  </si>
+  <si>
+    <t>Paid :200
+Received :300</t>
+  </si>
+  <si>
+    <t>1. 1st the amount should be 200 paid in green color.
+2.After receiveng the amount 0f 300 the balance should be 100 with red color.</t>
+  </si>
+  <si>
+    <t>TC_AE_10</t>
+  </si>
+  <si>
+    <t>Validate the functioanlity of the same balance after deleting the received amount details in all expense tab</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the All Expenses button.
+5. Enter the Paid the amount.
+6. Enter expense for the received amount.
+7. Hover over the received amount.
+8. Delete the amount.</t>
+  </si>
+  <si>
+    <t>The amount should be greena again with the "You are owed" text.</t>
+  </si>
+  <si>
+    <t>TC_AE_11</t>
+  </si>
+  <si>
+    <t>Validate the functioanlity of Upcoming Expenses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User must be loged in.
+2. Expense for item should be added.
+</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4.Click on the upcoming expenses button.</t>
+  </si>
+  <si>
+    <t>"You have not added any recurring expenses yet"  text should be displayed.</t>
+  </si>
+  <si>
+    <t>TC_AE_12</t>
+  </si>
+  <si>
+    <t>Validate the functioanlity of Trends.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4.Click on the Trend button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Following things should be displayed
+1. Total you paid for.
+2. Your total share.
+3.Payments made.
+4. Payments received.
+5. Total change in balance.
+</t>
+  </si>
+  <si>
+    <t>TC_AE_13</t>
+  </si>
+  <si>
+    <t>Validate the functioanlity of Trends when paymend is made person to person.</t>
+  </si>
+  <si>
+    <t>Paid: 100.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Following things should be displayed
+1. Total you paid for 0.00.
+2. Your total share 0.00.
+3.Payments made 200.  .
+4. Payments received 00.
+5. Total change in balance 200.
+</t>
+  </si>
+  <si>
+    <t>TC_AE_14</t>
+  </si>
+  <si>
+    <t>Validate the functioanlity of Trends when paymend is made for any item.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User must be loged in.
+2. Expense of person to person should be added.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Following things should be displayed
+1. Total you paid for 200.
+2. Your total share 100.
+3.Payments made 00.  .
+4. Payments received 00.
+5. Total change in balance 200.
+</t>
+  </si>
+  <si>
+    <t>TC_AE_15</t>
+  </si>
+  <si>
+    <t>Validate the functioanlity of Trends when paymend is made for any item by other person.</t>
+  </si>
+  <si>
+    <t>Paid: 400.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Following things should be displayed
+1. Total you paid for 0.00.
+2. Your total share 200.
+3.Payments made 0.  .
+4. Payments received 00.
+5. Total change in balance -200.
+</t>
+  </si>
+  <si>
+    <t>TC_GP_01</t>
+  </si>
+  <si>
+    <t>(TS_011)
+Home Page_ Groups</t>
+  </si>
+  <si>
+    <t>Validate the display and navigation of the Groups in the home page.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the add button on the right of the group heaing
+5. Add a group.</t>
+  </si>
+  <si>
+    <t>Group should be added in the Group section of the home page.</t>
+  </si>
+  <si>
+    <t>TC_GP_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate the functionality of the printable summary of the button in the groupe section when there payment is made by you </t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the add button on the right of the group heaing
+5. Add a group.
+6. Click on the printable summary button</t>
+  </si>
+  <si>
+    <t>User should be navigated to another page  for printable summary.
+1. Month should be displayed for the summary of the payments.
+2. Individual headings should be displayed for each person that shred the expense.</t>
+  </si>
+  <si>
+    <t>TC_GP_03</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the printable summary of the button by selecting the month in which no payment is made</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the add button on the right of the group heaing
+5. Add a group.
+6. Click on the printable summary button
+7. Select a month</t>
+  </si>
+  <si>
+    <t>Tables should be displaued as it is but the amount should be all 0</t>
+  </si>
+  <si>
+    <t>TC_GP_04</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the printable summary of the button when payment is made.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the add button on the right of the group heaing
+5. Add a group.
+6. Click on the printable summary button
+</t>
+  </si>
+  <si>
+    <t>1.Balance details for the person that paid should be displayed in green color
+2. Balance details for the person that received should be displayed in red color.</t>
+  </si>
+  <si>
+    <t>TC_GP_05</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the Balances in group section.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the group name.
+5. In the Balance icon click on the view details.</t>
+  </si>
+  <si>
+    <t>A box should be opened for the balance in which person who paid and recevied should be displayed
+Button of settle up and send reminder button</t>
+  </si>
+  <si>
+    <t>TC_GP_06</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the member of group in Balances in group section.</t>
+  </si>
+  <si>
+    <t>1. User must be loged in.
+2. Group is already created</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the group name.
+5. In the Balance icon click on the view details.
+6. Click on the account.</t>
+  </si>
+  <si>
+    <t>A box should be displayed with the following items
+1. Avatar with the name and Email Address.
+2. Cross Icon in the top right.
+3. two buttons for friends setting and send a balance reminder
+4. person owes amount to person made the payment</t>
+  </si>
+  <si>
+    <t>TC_GP_07</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the cros icon in member of group in Balances in group section.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the group name.
+5. In the Balance icon click on the view details.
+6. Click on the account.
+7. Click on the cross icon.</t>
+  </si>
+  <si>
+    <t>Box should be dissapeared and Group should be displayed again</t>
+  </si>
+  <si>
+    <t>TC_GP_08</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the Friend settings in the member box of balances.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the group name.
+5. In the Balance icon click on the view details.
+6. Click on the account.
+7. Click on the Friend Settings button.</t>
+  </si>
+  <si>
+    <t>User should be navigated to edit friend info</t>
+  </si>
+  <si>
+    <t>TC_GP_09</t>
+  </si>
+  <si>
+    <t>Validate the display of the Friend settings in the member box of balances.</t>
+  </si>
+  <si>
+    <t>Following items should be displayed
+1. Full name
+2. Email Address.
+3. Phone Number
+4. Cancel button.
+5. Save Changes button.
+6. Delete this friend button.</t>
+  </si>
+  <si>
+    <t>TC_GP_10</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the Friend settings in the member box of balances without making any changes.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the group name.
+5. In the Balance icon click on the view details.
+6. Click on the account.
+7. Click on the Friend Settings button.
+8. Click on the save changes button</t>
+  </si>
+  <si>
+    <t>Error should be displayed about you did not make any changes</t>
+  </si>
+  <si>
+    <t>TC_GP_11</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the Friend settings in the member box of balances by adding aplhabets in phone number tab</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the group name.
+5. In the Balance icon click on the view details.
+6. Click on the account.
+7. Click on the Friend Settings button.
+8. Enter alphabet.
+9. Click on the save changes button</t>
+  </si>
+  <si>
+    <t>Phone number: abcd</t>
+  </si>
+  <si>
+    <t>Error should be displayed about phone number is invalid</t>
+  </si>
+  <si>
+    <t>TC_GP_12</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the Friend settings in the member box of balances by providing valid phone number</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the group name.
+5. In the Balance icon click on the view details.
+6. Click on the account.
+7. Click on the Friend Settings button.
+8. Enter phone number.
+9. Click on the save changes button</t>
+  </si>
+  <si>
+    <t>+923169985935</t>
+  </si>
+  <si>
+    <t>Phone number should be added.</t>
+  </si>
+  <si>
+    <t>TC_GP_13</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the Cancel button in Friend settings in the member box of balances.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the group name.
+5. In the Balance icon click on the view details.
+6. Click on the account.
+7. Click on the Friend Settings button.
+8. Click on the Cancel button</t>
+  </si>
+  <si>
+    <t>User should be redirected to group section of the home page.</t>
+  </si>
+  <si>
+    <t>TC_GP_14</t>
+  </si>
+  <si>
+    <t>Validate the display of the Send a balance reminder in Balance under group section.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the group name.
+5. Click on the account under group balance.
+6. Click on the Send a balance reminder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Following items should be displayed
+1. Button with the name of the people added in the group
+2. Detail of expense about.
+3. By default a reminder message is written.
+4. Cancel button 
+5. Send button.
+</t>
+  </si>
+  <si>
+    <t>TC_GP_15</t>
+  </si>
+  <si>
+    <t>Validate the functionality cancel button of the Send a balance reminder in Balance under group section.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the group name.
+5. Click on the account under group balance.
+6. Click on the Send a balance reminder.
+7. Click on the cancel button.</t>
+  </si>
+  <si>
+    <t>User should be redirected to box of the send a balance reminder</t>
+  </si>
+  <si>
+    <t>TC_GP_16</t>
+  </si>
+  <si>
+    <t>Validate the functionality Name button of the Send a balance reminder in Balance under group section.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the group name.
+5. Click on the account under group balance.
+6. Click on the Send a balance reminder.
+7. Click on the Send message button drop menu.</t>
+  </si>
+  <si>
+    <t>All the names that are added in the group should be displayed.</t>
+  </si>
+  <si>
+    <t>TC_GP_18</t>
+  </si>
+  <si>
+    <t>Validate the funcitonality of sending an empty email to the members of the group</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the group name.
+5. Click on the account under group balance.
+6. Click on the Send a balance reminder.
+7. send empty email</t>
+  </si>
+  <si>
+    <t>Error should be displayed about emoty email address.</t>
+  </si>
+  <si>
+    <t>TC_GP_19</t>
+  </si>
+  <si>
+    <t>Validate the funcitonality of sending an default email to the members of the group</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the group name.
+5. Click on the account under group balance.
+6. Click on the Send a balance reminder.
+7. send  email</t>
+  </si>
+  <si>
+    <t>Email should be send and received on the respective email address</t>
+  </si>
+  <si>
+    <t>TC_GP_20</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the white board</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the group name.
+5. Click on the commen icon.
+6. Add some text.
+7. Click on Save changes.</t>
+  </si>
+  <si>
+    <t>Text: Note this amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text should be saved </t>
+  </si>
+  <si>
+    <t>TC_GP_21</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the white board after removing the text again</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the group name.
+5. Click on the commen icon.
+6. Remove the text.
+7. Click on Save changes.</t>
+  </si>
+  <si>
+    <t>Text should be removed</t>
   </si>
 </sst>
 </file>
@@ -2361,7 +3812,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2392,6 +3843,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3679,6 +5133,1444 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4CB4CE9-29C8-47B9-8EF7-962823FA9020}">
+  <dimension ref="A3:L48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" customWidth="1"/>
+    <col min="6" max="6" width="41.28515625" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="35.5703125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" ht="207" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="4"/>
+      <c r="I29" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="3"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="3"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="3"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="3"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="3"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="3"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="3"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="3"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="3"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="3"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="3"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="3"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="3"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="3"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5374A4A1-574F-477D-AB0C-14A21CB5E77C}">
+  <dimension ref="A3:L48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" customWidth="1"/>
+    <col min="6" max="6" width="41.28515625" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="35.5703125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>812</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" ht="207" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="4"/>
+      <c r="I29" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="3"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="3"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="3"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="3"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="3"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="3"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="3"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="3"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="3"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="3"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="3"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="3"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="3"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="3"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0009D874-CD7C-4BFD-8D72-C9B29303BD60}">
   <dimension ref="A3:L37"/>
@@ -6593,8 +9485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0988788C-B934-465C-9B43-D1B35F53A56B}">
   <dimension ref="A3:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6649,7 +9541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>532</v>
       </c>
@@ -6657,37 +9549,67 @@
         <v>533</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>476</v>
+        <v>534</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>287</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>477</v>
+        <v>535</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>183</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="1"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="4"/>
+      <c r="B6" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -7033,4 +9955,1873 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0882115-7DDD-4F13-B4D5-33F40FEBFBF1}">
+  <dimension ref="A3:L46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" customWidth="1"/>
+    <col min="6" max="6" width="41.28515625" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="35.5703125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="1"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="10"/>
+      <c r="I27" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="3"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="3"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="3"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="3"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="3"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="3"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="3"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="3"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="3"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="3"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="3"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="3"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5208A4A-4B84-49D6-99FD-23D6F04D1871}">
+  <dimension ref="A3:L48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" customWidth="1"/>
+    <col min="6" max="6" width="41.28515625" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="35.5703125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="270" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="207" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="3"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="3"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="3"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="3"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="3"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="3"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="3"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="3"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="3"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="3"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="3"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="3"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14F36CE-B29B-4D9C-9B1B-60F877A1E583}">
+  <dimension ref="A3:L48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" customWidth="1"/>
+    <col min="6" max="6" width="41.28515625" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="35.5703125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" ht="207" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="4"/>
+      <c r="I29" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="3"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="3"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="3"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="3"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="3"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="3"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="3"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="3"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="3"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="3"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="3"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="3"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="3"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="3"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test Cases (splitwise).xlsx
+++ b/Test Cases (splitwise).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Splitwise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97DBC35-85F2-4D56-9556-59E6A7AF0E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE206DBB-DF65-4E97-AC0E-22BCFB8B7B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="10" xr2:uid="{E5A88738-20E6-4658-B6AD-BD823AD18E5F}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="885">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -3758,6 +3758,170 @@
   </si>
   <si>
     <t>Text should be removed</t>
+  </si>
+  <si>
+    <t>TC_GP_22</t>
+  </si>
+  <si>
+    <t>Validate the display of the Settings icon</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the group name.
+5. Click on the settings icon</t>
+  </si>
+  <si>
+    <t>four buttons should be displayed
+1. Edit group setting
+2. Hide items not invovling me
+3. Send a balance reminder
+4. Export as Spreadsheet.</t>
+  </si>
+  <si>
+    <t>TC_GP_23</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the group name.
+5. Click on the settings icon.
+6.Click on the Edit group settings</t>
+  </si>
+  <si>
+    <t>Validate the Display of "Edit Group Setting" of the Settings icon Groups section of home page.</t>
+  </si>
+  <si>
+    <t>1. User should be navigated to another page of groups.
+2. one extra button for delete group is displayed.</t>
+  </si>
+  <si>
+    <t>TC_GP_24</t>
+  </si>
+  <si>
+    <t>Validate the Display of "Edit Group Setting" of the Settings icon Groups section of home page by changing group type.</t>
+  </si>
+  <si>
+    <t>Group Type: Trip</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the group name.
+5. Click on the settings icon.
+6.Click on the Edit group settings
+7. Select group type
+8. Click on the save changes button</t>
+  </si>
+  <si>
+    <t>In groups section of the home page, the icon of the groups should be changed to selected type</t>
+  </si>
+  <si>
+    <t>TC_GP_25</t>
+  </si>
+  <si>
+    <t>Validate the Display of "delete group" button of the Settings icon Groups section of home page by changing group type.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the group name.
+5. Click on the settings icon.
+6.Click on the Edit group settings
+7. click on delete group button</t>
+  </si>
+  <si>
+    <t>A confirmation message should be displayed and asking for the deletion of group</t>
+  </si>
+  <si>
+    <t>TC_GP_26</t>
+  </si>
+  <si>
+    <t>Validate the Display of "Send a balance reminder" button of the Settings icon Groups section of home page by changing group type.</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the group name.
+5. Click on the settings icon.
+6.Click on the send a balance reminder button.</t>
+  </si>
+  <si>
+    <t>A box should be displayed with a default message.</t>
+  </si>
+  <si>
+    <t>TC_GP_27</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the group name.
+5. Click on the settings icon.
+6.Click on export as spread sheet.</t>
+  </si>
+  <si>
+    <t>Validate the Display of "Export as spreadsheet" button of the Settings icon Groups section of home page by changing group type when there is no expense In group.</t>
+  </si>
+  <si>
+    <t>No Expense added</t>
+  </si>
+  <si>
+    <t>Excel file should be downloaded with below mentioed detials.
+1. Date
+2. Description
+3. Category
+4. Cost
+5.Currency
+nothing should be mentioned below these headings</t>
+  </si>
+  <si>
+    <t>TC_GP_28</t>
+  </si>
+  <si>
+    <t>Validate the Display of "Export as spreadsheet" button of the Settings icon Groups section of home page by changing group type when some expense is added</t>
+  </si>
+  <si>
+    <t>Expense is added upto 200</t>
+  </si>
+  <si>
+    <t>Details should be mentioned below their respectives headings with a - sign with the name of person that owes money.</t>
+  </si>
+  <si>
+    <t>TC_GP_29</t>
+  </si>
+  <si>
+    <t>Validate the Display of "Export as spreadsheet" button of the Settings icon Groups section of home page by changing group type when2 expense are added with 2 different currencies</t>
+  </si>
+  <si>
+    <t>1. Open the link https://secure.splitwise.com/login
+2. Login to the app.
+3.Click on the skip for now button.
+4. Click on the group name.
+5. Add 2 expense witjh 2 different currencies
+6. Click on the settings icon.
+7.Click on export as spread sheet.</t>
+  </si>
+  <si>
+    <t>Currency 1: USD
+Currency 2 : PKR</t>
+  </si>
+  <si>
+    <t>Details should be displayed in excel file In details with te relevant currencies</t>
+  </si>
+  <si>
+    <t>TC_GP_30</t>
+  </si>
+  <si>
+    <t>Validate the functionality of excel file after adding three expenses (2 by one person and 1 by another) in 2 different currencies</t>
+  </si>
+  <si>
+    <t>Every single details should be added in different line and the calculated amount after adding or subtracting should be displayed manually without any formlua</t>
   </si>
 </sst>
 </file>
@@ -5826,8 +5990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5374A4A1-574F-477D-AB0C-14A21CB5E77C}">
   <dimension ref="A3:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6360,83 +6524,218 @@
         <v>846</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="4"/>
+      <c r="B24" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>850</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="176.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:9" ht="207" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="4"/>
+      <c r="B26" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>872</v>
+      </c>
       <c r="I29" s="5" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="3"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="4"/>
+    <row r="30" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>884</v>
+      </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
